--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1311418.270833421</v>
+        <v>1245443.009434507</v>
       </c>
     </row>
     <row r="7">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>161.0432237466921</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>122.3448497289536</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.80959937334552</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>57.8494203943026</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X11" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>38.41001630419395</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.35367080851995</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.27953663397801</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8374474871617</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W12" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y12" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>53.50078164732778</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.0432237466921</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161.043223746692</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.16642200944041</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>25.25857665337463</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T15" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U15" t="n">
-        <v>44.34100544313036</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.0432237466919</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.0762180650797</v>
       </c>
       <c r="S16" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>154.2336243733465</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.809599373345492</v>
+        <v>6.809599373345463</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T17" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>182.8374474871616</v>
+        <v>180.1942701232567</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W17" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.890711510171073</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>14.93080017204644</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W18" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.0432237466919</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>182.8374474871616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>182.8374474871616</v>
+        <v>66.65920225975495</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>182.8374474871617</v>
+        <v>4.166422009440284</v>
       </c>
       <c r="D20" t="n">
-        <v>154.2336243733465</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.809599373345492</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>137.7636871127139</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T21" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>182.8374474871617</v>
+        <v>73.22304853799329</v>
       </c>
       <c r="W21" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U22" t="n">
-        <v>31.01132229922682</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>156.2938416936811</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="23">
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.809599373345492</v>
+        <v>4.166422009440298</v>
       </c>
       <c r="S23" t="n">
         <v>156.8768017372518</v>
       </c>
       <c r="T23" t="n">
-        <v>180.1942701232564</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="V23" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>29.49839186324804</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>46.90116789696089</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>147.5965106530784</v>
       </c>
       <c r="T24" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U24" t="n">
-        <v>182.8374474871617</v>
+        <v>5.161422536401576</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.66155866191556</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>182.8374474871617</v>
+        <v>140.3816650847766</v>
       </c>
       <c r="U25" t="n">
-        <v>161.0432237466921</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>64.65901976764839</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>4.166422009440289</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>122.3448497289536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T26" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U26" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>161.0432237466921</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>54.03379047354449</v>
       </c>
       <c r="Y27" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U28" t="n">
-        <v>33.7650782957047</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>182.8374474871617</v>
+        <v>30.79637894579224</v>
       </c>
       <c r="X28" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>180.1942701232566</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>6.809599373345492</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T29" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>154.2336243733466</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>28.78305379938443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>14.93080017204655</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="W30" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>30.38509689284708</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="W31" t="n">
-        <v>163.79697974317</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.166422009440173</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>154.2336243733465</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.809599373345492</v>
       </c>
       <c r="S32" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="V32" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>147.5965106530784</v>
       </c>
       <c r="T33" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>173.0046239467974</v>
+        <v>96.93048977225546</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="Y33" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.0432237466921</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.0604078751873</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>182.8374474871617</v>
+        <v>102.7398164161019</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="G35" t="n">
-        <v>182.8374474871618</v>
+        <v>64.65901976764839</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.166422009440225</v>
+        <v>122.3448497289536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U35" t="n">
-        <v>182.8374474871618</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>182.8374474871618</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>13.44671309361369</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>30.91203497043064</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>147.5965106530784</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>182.8374474871618</v>
       </c>
-      <c r="V36" t="n">
-        <v>182.8374474871618</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
       <c r="X36" t="n">
-        <v>182.8374474871618</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9.618847424394442</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>182.8374474871618</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>182.8374474871618</v>
-      </c>
-      <c r="U37" t="n">
-        <v>182.8374474871618</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>31.01132229922692</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>154.2336243733466</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>182.8374474871618</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>154.2336243733466</v>
       </c>
       <c r="U38" t="n">
         <v>182.8374474871618</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>13.44671309361369</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>46.90116789696089</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S39" t="n">
-        <v>147.5965106530784</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>171.8568787850742</v>
       </c>
       <c r="U39" t="n">
-        <v>182.8374474871618</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>182.8374474871618</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.8374474871618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>31.01132229922692</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>161.0432237466921</v>
+      </c>
+      <c r="V40" t="n">
         <v>182.8374474871618</v>
-      </c>
-      <c r="T40" t="n">
-        <v>182.8374474871618</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>182.8374474871618</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.166422009440122</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U41" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>182.8374474871617</v>
+        <v>161.0432237466921</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>55.32531956331711</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>46.90116789696089</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>147.5965106530784</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U42" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.979040019396277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.79637894579229</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>161.043223746692</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U43" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.166422009440388</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U44" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>161.043223746692</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T45" t="n">
-        <v>64.78612548389755</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>29.49839186324832</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.3816650847764</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.66155866191556</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>182.8374474871617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.8374474871617</v>
+        <v>14.06859957349295</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138.2076520908453</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="C11" t="n">
-        <v>138.2076520908453</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="D11" t="n">
-        <v>138.2076520908453</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E11" t="n">
-        <v>138.2076520908453</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F11" t="n">
-        <v>138.2076520908453</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G11" t="n">
-        <v>138.2076520908453</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H11" t="n">
-        <v>138.2076520908453</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I11" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J11" t="n">
-        <v>20.50786881661497</v>
+        <v>20.50786881661543</v>
       </c>
       <c r="K11" t="n">
-        <v>78.79182830082482</v>
+        <v>78.7918283008247</v>
       </c>
       <c r="L11" t="n">
         <v>187.0774516727204</v>
       </c>
       <c r="M11" t="n">
-        <v>338.4437735878632</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N11" t="n">
-        <v>496.7578240095728</v>
+        <v>496.757824009573</v>
       </c>
       <c r="O11" t="n">
-        <v>633.2474128485935</v>
+        <v>633.247412848594</v>
       </c>
       <c r="P11" t="n">
-        <v>716.0996432869749</v>
+        <v>716.0996432869758</v>
       </c>
       <c r="Q11" t="n">
-        <v>731.3497899486466</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R11" t="n">
-        <v>724.4714067432471</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S11" t="n">
-        <v>566.0099908470331</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T11" t="n">
-        <v>381.3257004559607</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="U11" t="n">
-        <v>381.3257004559607</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="V11" t="n">
-        <v>322.8919424819177</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="W11" t="n">
-        <v>322.8919424819177</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="X11" t="n">
-        <v>138.2076520908453</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="Y11" t="n">
-        <v>138.2076520908453</v>
+        <v>361.9812091665023</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C12" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D12" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E12" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F12" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9842390399022</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H12" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I12" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J12" t="n">
-        <v>14.62699579897293</v>
+        <v>14.6269957989733</v>
       </c>
       <c r="K12" t="n">
-        <v>65.45583405098594</v>
+        <v>65.45583405098637</v>
       </c>
       <c r="L12" t="n">
-        <v>178.965957375333</v>
+        <v>178.9659573753335</v>
       </c>
       <c r="M12" t="n">
-        <v>330.2998638361732</v>
+        <v>330.2998638361739</v>
       </c>
       <c r="N12" t="n">
-        <v>499.6875572857928</v>
+        <v>499.6875572857937</v>
       </c>
       <c r="O12" t="n">
-        <v>632.9799039014431</v>
+        <v>632.9799039014439</v>
       </c>
       <c r="P12" t="n">
-        <v>721.1090237341625</v>
+        <v>721.1090237341634</v>
       </c>
       <c r="Q12" t="n">
-        <v>731.3497899486466</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R12" t="n">
-        <v>707.835106479982</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S12" t="n">
-        <v>707.835106479982</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T12" t="n">
-        <v>707.835106479982</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="U12" t="n">
-        <v>523.1508160889096</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="V12" t="n">
-        <v>523.1508160889096</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="W12" t="n">
-        <v>338.4665256978371</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="X12" t="n">
-        <v>338.4665256978371</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y12" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.7215872969564</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C13" t="n">
-        <v>310.7215872969564</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D13" t="n">
-        <v>310.7215872969564</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E13" t="n">
-        <v>162.2623709603916</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F13" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G13" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H13" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I13" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J13" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K13" t="n">
-        <v>67.49284039051832</v>
+        <v>110.9161925022161</v>
       </c>
       <c r="L13" t="n">
-        <v>246.513476096974</v>
+        <v>243.1254275584781</v>
       </c>
       <c r="M13" t="n">
-        <v>427.522549109264</v>
+        <v>258.6769401156483</v>
       </c>
       <c r="N13" t="n">
-        <v>608.5316221215541</v>
+        <v>439.6860131279386</v>
       </c>
       <c r="O13" t="n">
-        <v>609.8254020125223</v>
+        <v>608.8474927092195</v>
       </c>
       <c r="P13" t="n">
-        <v>731.3497899486466</v>
+        <v>730.3718806453439</v>
       </c>
       <c r="Q13" t="n">
-        <v>731.3497899486466</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R13" t="n">
-        <v>731.3497899486466</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S13" t="n">
-        <v>677.3085963654872</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T13" t="n">
-        <v>677.3085963654872</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="U13" t="n">
-        <v>677.3085963654872</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="V13" t="n">
-        <v>677.3085963654872</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W13" t="n">
-        <v>677.3085963654872</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="X13" t="n">
-        <v>677.3085963654872</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.6243059744148</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>568.67986697219</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="C14" t="n">
-        <v>568.67986697219</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="D14" t="n">
-        <v>383.9955765811176</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="E14" t="n">
-        <v>383.9955765811176</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="F14" t="n">
-        <v>383.9955765811176</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="G14" t="n">
-        <v>199.3112861900453</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="H14" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I14" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J14" t="n">
         <v>20.5078688166152</v>
       </c>
       <c r="K14" t="n">
-        <v>78.79182830082448</v>
+        <v>78.79182830082459</v>
       </c>
       <c r="L14" t="n">
-        <v>187.0774516727201</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M14" t="n">
-        <v>338.4437735878631</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N14" t="n">
-        <v>496.7578240095726</v>
+        <v>496.7578240095731</v>
       </c>
       <c r="O14" t="n">
-        <v>633.2474128485935</v>
+        <v>633.2474128485941</v>
       </c>
       <c r="P14" t="n">
-        <v>716.0996432869748</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q14" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R14" t="n">
-        <v>731.3497899486465</v>
+        <v>727.1412828684047</v>
       </c>
       <c r="S14" t="n">
-        <v>731.3497899486465</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="T14" t="n">
-        <v>731.3497899486465</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="U14" t="n">
-        <v>731.3497899486465</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="V14" t="n">
-        <v>731.3497899486465</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W14" t="n">
-        <v>731.3497899486465</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="X14" t="n">
-        <v>731.3497899486465</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="Y14" t="n">
-        <v>731.3497899486465</v>
+        <v>199.3112861900456</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>317.1923147795014</v>
+        <v>212.8938246684433</v>
       </c>
       <c r="C15" t="n">
-        <v>317.1923147795014</v>
+        <v>40.14070959026046</v>
       </c>
       <c r="D15" t="n">
-        <v>317.1923147795014</v>
+        <v>40.14070959026046</v>
       </c>
       <c r="E15" t="n">
-        <v>159.5827857823561</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F15" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G15" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H15" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I15" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J15" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897301</v>
       </c>
       <c r="K15" t="n">
-        <v>65.45583405098597</v>
+        <v>65.45583405098614</v>
       </c>
       <c r="L15" t="n">
-        <v>178.965957375333</v>
+        <v>178.9659573753333</v>
       </c>
       <c r="M15" t="n">
-        <v>330.299863836173</v>
+        <v>330.2998638361738</v>
       </c>
       <c r="N15" t="n">
-        <v>499.6875572857927</v>
+        <v>499.6875572857936</v>
       </c>
       <c r="O15" t="n">
-        <v>632.9799039014429</v>
+        <v>632.9799039014439</v>
       </c>
       <c r="P15" t="n">
-        <v>721.1090237341624</v>
+        <v>721.1090237341634</v>
       </c>
       <c r="Q15" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R15" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S15" t="n">
-        <v>731.3497899486465</v>
+        <v>582.2624054505885</v>
       </c>
       <c r="T15" t="n">
-        <v>546.6654995575741</v>
+        <v>397.5781150595159</v>
       </c>
       <c r="U15" t="n">
-        <v>501.8766051705737</v>
+        <v>397.5781150595159</v>
       </c>
       <c r="V15" t="n">
-        <v>501.8766051705737</v>
+        <v>397.5781150595159</v>
       </c>
       <c r="W15" t="n">
-        <v>501.8766051705737</v>
+        <v>397.5781150595159</v>
       </c>
       <c r="X15" t="n">
-        <v>501.8766051705737</v>
+        <v>397.5781150595159</v>
       </c>
       <c r="Y15" t="n">
-        <v>317.1923147795014</v>
+        <v>212.8938246684433</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.62699579897293</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="C16" t="n">
-        <v>14.62699579897293</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="D16" t="n">
-        <v>14.62699579897293</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="E16" t="n">
-        <v>14.62699579897293</v>
+        <v>477.7630806170527</v>
       </c>
       <c r="F16" t="n">
-        <v>14.62699579897293</v>
+        <v>330.127705455634</v>
       </c>
       <c r="G16" t="n">
-        <v>14.62699579897293</v>
+        <v>161.5163207301218</v>
       </c>
       <c r="H16" t="n">
-        <v>14.62699579897293</v>
+        <v>161.5163207301218</v>
       </c>
       <c r="I16" t="n">
-        <v>14.62699579897293</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="J16" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K16" t="n">
-        <v>110.9161925022161</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L16" t="n">
-        <v>122.6528755014873</v>
+        <v>193.6476315054286</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6619485137773</v>
+        <v>374.6567045177189</v>
       </c>
       <c r="N16" t="n">
-        <v>484.6710215260673</v>
+        <v>555.6657775300092</v>
       </c>
       <c r="O16" t="n">
-        <v>608.8474927092186</v>
+        <v>724.8272571112902</v>
       </c>
       <c r="P16" t="n">
-        <v>730.3718806453429</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="Q16" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R16" t="n">
-        <v>731.3497899486465</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="S16" t="n">
-        <v>546.6654995575741</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="T16" t="n">
-        <v>546.6654995575741</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="U16" t="n">
-        <v>361.9812091665017</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="V16" t="n">
-        <v>361.9812091665017</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="W16" t="n">
-        <v>177.2969187754294</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="X16" t="n">
-        <v>177.2969187754294</v>
+        <v>626.2222969536175</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.2969187754294</v>
+        <v>626.2222969536175</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.41853557003</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="C17" t="n">
-        <v>170.41853557003</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="D17" t="n">
-        <v>14.62699579897293</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="E17" t="n">
-        <v>14.62699579897293</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="F17" t="n">
-        <v>14.62699579897293</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="G17" t="n">
-        <v>14.62699579897293</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="H17" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I17" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J17" t="n">
-        <v>20.50786881661528</v>
+        <v>20.5078688166152</v>
       </c>
       <c r="K17" t="n">
-        <v>78.79182830082462</v>
+        <v>78.79182830082459</v>
       </c>
       <c r="L17" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M17" t="n">
-        <v>338.4437735878633</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N17" t="n">
-        <v>496.7578240095729</v>
+        <v>496.7578240095731</v>
       </c>
       <c r="O17" t="n">
-        <v>633.2474128485933</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P17" t="n">
-        <v>716.0996432869748</v>
+        <v>716.0996432869756</v>
       </c>
       <c r="Q17" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="R17" t="n">
-        <v>724.471406743247</v>
+        <v>724.4714067432479</v>
       </c>
       <c r="S17" t="n">
-        <v>724.471406743247</v>
+        <v>566.009990847034</v>
       </c>
       <c r="T17" t="n">
-        <v>539.7871163521747</v>
+        <v>566.009990847034</v>
       </c>
       <c r="U17" t="n">
-        <v>355.1028259611024</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="V17" t="n">
-        <v>355.1028259611024</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="W17" t="n">
-        <v>170.41853557003</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="X17" t="n">
-        <v>170.41853557003</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="Y17" t="n">
-        <v>170.41853557003</v>
+        <v>199.3112861900455</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>153.7822353067648</v>
+        <v>162.2153024400291</v>
       </c>
       <c r="C18" t="n">
-        <v>153.7822353067648</v>
+        <v>162.2153024400291</v>
       </c>
       <c r="D18" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E18" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F18" t="n">
-        <v>153.7822353067648</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G18" t="n">
-        <v>17.54690641530735</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H18" t="n">
-        <v>17.54690641530735</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I18" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J18" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K18" t="n">
-        <v>65.455834050986</v>
+        <v>65.45583405098603</v>
       </c>
       <c r="L18" t="n">
-        <v>178.9659573753331</v>
+        <v>178.9659573753332</v>
       </c>
       <c r="M18" t="n">
-        <v>330.2998638361736</v>
+        <v>330.2998638361737</v>
       </c>
       <c r="N18" t="n">
-        <v>499.6875572857926</v>
+        <v>499.6875572857935</v>
       </c>
       <c r="O18" t="n">
-        <v>632.9799039014429</v>
+        <v>632.9799039014438</v>
       </c>
       <c r="P18" t="n">
-        <v>721.1090237341624</v>
+        <v>721.1090237341633</v>
       </c>
       <c r="Q18" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="R18" t="n">
-        <v>707.8351064799818</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="S18" t="n">
-        <v>707.8351064799818</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="T18" t="n">
-        <v>707.8351064799818</v>
+        <v>716.268173613247</v>
       </c>
       <c r="U18" t="n">
-        <v>523.1508160889096</v>
+        <v>531.5838832221743</v>
       </c>
       <c r="V18" t="n">
-        <v>523.1508160889096</v>
+        <v>346.8995928311017</v>
       </c>
       <c r="W18" t="n">
-        <v>338.4665256978372</v>
+        <v>346.8995928311017</v>
       </c>
       <c r="X18" t="n">
-        <v>153.7822353067648</v>
+        <v>346.8995928311017</v>
       </c>
       <c r="Y18" t="n">
-        <v>153.7822353067648</v>
+        <v>162.2153024400291</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.62699579897293</v>
+        <v>479.3329720224688</v>
       </c>
       <c r="C19" t="n">
-        <v>14.62699579897293</v>
+        <v>479.3329720224688</v>
       </c>
       <c r="D19" t="n">
-        <v>14.62699579897293</v>
+        <v>479.3329720224688</v>
       </c>
       <c r="E19" t="n">
-        <v>14.62699579897293</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="F19" t="n">
-        <v>14.62699579897293</v>
+        <v>183.2383805244852</v>
       </c>
       <c r="G19" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H19" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I19" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J19" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K19" t="n">
-        <v>110.9161925022161</v>
+        <v>110.9161925022162</v>
       </c>
       <c r="L19" t="n">
         <v>289.9368282086718</v>
       </c>
       <c r="M19" t="n">
-        <v>305.4883407658421</v>
+        <v>470.9459012209621</v>
       </c>
       <c r="N19" t="n">
-        <v>486.4974137781321</v>
+        <v>493.7887213271619</v>
       </c>
       <c r="O19" t="n">
-        <v>655.658893359413</v>
+        <v>662.9502009084429</v>
       </c>
       <c r="P19" t="n">
-        <v>730.3718806453429</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="Q19" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="R19" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="S19" t="n">
-        <v>731.3497899486465</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="T19" t="n">
-        <v>546.6654995575741</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="U19" t="n">
-        <v>546.6654995575741</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="V19" t="n">
-        <v>361.9812091665017</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="W19" t="n">
-        <v>177.2969187754294</v>
+        <v>479.3329720224688</v>
       </c>
       <c r="X19" t="n">
-        <v>177.2969187754294</v>
+        <v>479.3329720224688</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.2969187754294</v>
+        <v>479.3329720224688</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>355.1028259611024</v>
+        <v>18.83550287921565</v>
       </c>
       <c r="C20" t="n">
-        <v>170.41853557003</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="D20" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="E20" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="F20" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="G20" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="H20" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="I20" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="J20" t="n">
-        <v>20.5078688166152</v>
+        <v>20.50786881661531</v>
       </c>
       <c r="K20" t="n">
-        <v>78.79182830082459</v>
+        <v>78.7918283008247</v>
       </c>
       <c r="L20" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727201</v>
       </c>
       <c r="M20" t="n">
-        <v>338.4437735878632</v>
+        <v>338.443773587863</v>
       </c>
       <c r="N20" t="n">
-        <v>496.7578240095726</v>
+        <v>496.7578240095727</v>
       </c>
       <c r="O20" t="n">
-        <v>633.2474128485934</v>
+        <v>633.2474128485937</v>
       </c>
       <c r="P20" t="n">
-        <v>716.099643286975</v>
+        <v>716.0996432869753</v>
       </c>
       <c r="Q20" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R20" t="n">
-        <v>724.4714067432473</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="S20" t="n">
-        <v>724.4714067432473</v>
+        <v>572.8883740524332</v>
       </c>
       <c r="T20" t="n">
-        <v>724.4714067432473</v>
+        <v>572.8883740524332</v>
       </c>
       <c r="U20" t="n">
-        <v>539.7871163521748</v>
+        <v>572.8883740524332</v>
       </c>
       <c r="V20" t="n">
-        <v>539.7871163521748</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="W20" t="n">
-        <v>539.7871163521748</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="X20" t="n">
-        <v>539.7871163521748</v>
+        <v>203.5197932702881</v>
       </c>
       <c r="Y20" t="n">
-        <v>355.1028259611024</v>
+        <v>18.83550287921565</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.62699579897293</v>
+        <v>323.6154397686133</v>
       </c>
       <c r="C21" t="n">
-        <v>14.62699579897293</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="D21" t="n">
-        <v>14.62699579897293</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="E21" t="n">
-        <v>14.62699579897293</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="F21" t="n">
-        <v>14.62699579897293</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="G21" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="H21" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="I21" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="J21" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="K21" t="n">
-        <v>65.45583405098557</v>
+        <v>65.45583405098607</v>
       </c>
       <c r="L21" t="n">
-        <v>178.9659573753327</v>
+        <v>178.9659573753329</v>
       </c>
       <c r="M21" t="n">
-        <v>330.2998638361731</v>
+        <v>330.2998638361734</v>
       </c>
       <c r="N21" t="n">
-        <v>499.6875572857929</v>
+        <v>499.6875572857932</v>
       </c>
       <c r="O21" t="n">
-        <v>632.9799039014431</v>
+        <v>632.9799039014434</v>
       </c>
       <c r="P21" t="n">
-        <v>721.1090237341626</v>
+        <v>721.109023734163</v>
       </c>
       <c r="Q21" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R21" t="n">
-        <v>707.8351064799821</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="S21" t="n">
-        <v>568.6798669721902</v>
+        <v>582.2624054505881</v>
       </c>
       <c r="T21" t="n">
-        <v>383.9955765811177</v>
+        <v>582.2624054505881</v>
       </c>
       <c r="U21" t="n">
-        <v>383.9955765811177</v>
+        <v>582.2624054505881</v>
       </c>
       <c r="V21" t="n">
-        <v>199.3112861900453</v>
+        <v>508.2997301596857</v>
       </c>
       <c r="W21" t="n">
-        <v>14.62699579897293</v>
+        <v>508.2997301596857</v>
       </c>
       <c r="X21" t="n">
-        <v>14.62699579897293</v>
+        <v>508.2997301596857</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.62699579897293</v>
+        <v>323.6154397686133</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.62699579897293</v>
+        <v>204.1086417991473</v>
       </c>
       <c r="C22" t="n">
-        <v>14.62699579897293</v>
+        <v>204.1086417991473</v>
       </c>
       <c r="D22" t="n">
-        <v>14.62699579897293</v>
+        <v>204.1086417991473</v>
       </c>
       <c r="E22" t="n">
-        <v>14.62699579897293</v>
+        <v>204.1086417991473</v>
       </c>
       <c r="F22" t="n">
-        <v>14.62699579897293</v>
+        <v>204.1086417991473</v>
       </c>
       <c r="G22" t="n">
-        <v>14.62699579897293</v>
+        <v>35.49725707363511</v>
       </c>
       <c r="H22" t="n">
-        <v>14.62699579897293</v>
+        <v>35.49725707363511</v>
       </c>
       <c r="I22" t="n">
-        <v>14.62699579897293</v>
+        <v>35.49725707363511</v>
       </c>
       <c r="J22" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="K22" t="n">
-        <v>110.9161925022161</v>
+        <v>110.9161925022162</v>
       </c>
       <c r="L22" t="n">
-        <v>289.9368282086718</v>
+        <v>199.192255039482</v>
       </c>
       <c r="M22" t="n">
-        <v>470.9459012209618</v>
+        <v>380.2013280517722</v>
       </c>
       <c r="N22" t="n">
-        <v>607.5537128182505</v>
+        <v>561.2104010640624</v>
       </c>
       <c r="O22" t="n">
-        <v>608.8474927092188</v>
+        <v>730.3718806453434</v>
       </c>
       <c r="P22" t="n">
-        <v>730.3718806453431</v>
+        <v>730.3718806453434</v>
       </c>
       <c r="Q22" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R22" t="n">
-        <v>600.0044349512071</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="S22" t="n">
-        <v>415.3201445601347</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="T22" t="n">
-        <v>230.6358541690623</v>
+        <v>546.6654995575745</v>
       </c>
       <c r="U22" t="n">
-        <v>199.3112861900453</v>
+        <v>546.6654995575745</v>
       </c>
       <c r="V22" t="n">
-        <v>199.3112861900453</v>
+        <v>546.6654995575745</v>
       </c>
       <c r="W22" t="n">
-        <v>199.3112861900453</v>
+        <v>546.6654995575745</v>
       </c>
       <c r="X22" t="n">
-        <v>199.3112861900453</v>
+        <v>388.7929321902199</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.62699579897293</v>
+        <v>204.1086417991473</v>
       </c>
     </row>
     <row r="23">
@@ -5989,49 +5989,49 @@
         <v>14.62699579897294</v>
       </c>
       <c r="J23" t="n">
-        <v>20.50786881661529</v>
+        <v>20.50786881661514</v>
       </c>
       <c r="K23" t="n">
-        <v>78.79182830082441</v>
+        <v>78.79182830082453</v>
       </c>
       <c r="L23" t="n">
-        <v>187.0774516727201</v>
+        <v>187.0774516727202</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4437735878631</v>
+        <v>338.4437735878632</v>
       </c>
       <c r="N23" t="n">
-        <v>496.7578240095727</v>
+        <v>496.7578240095728</v>
       </c>
       <c r="O23" t="n">
-        <v>633.2474128485936</v>
+        <v>633.2474128485937</v>
       </c>
       <c r="P23" t="n">
-        <v>716.0996432869752</v>
+        <v>716.0996432869755</v>
       </c>
       <c r="Q23" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R23" t="n">
-        <v>724.4714067432474</v>
+        <v>727.1412828684045</v>
       </c>
       <c r="S23" t="n">
-        <v>566.0099908470334</v>
+        <v>568.6798669721906</v>
       </c>
       <c r="T23" t="n">
-        <v>383.9955765811178</v>
+        <v>383.995576581118</v>
       </c>
       <c r="U23" t="n">
-        <v>383.9955765811178</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="V23" t="n">
-        <v>199.3112861900454</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="W23" t="n">
-        <v>14.62699579897294</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="X23" t="n">
-        <v>14.62699579897294</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="Y23" t="n">
         <v>14.62699579897294</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.3791411997783</v>
+        <v>392.3645569419383</v>
       </c>
       <c r="C24" t="n">
-        <v>189.3791411997783</v>
+        <v>219.6114418637555</v>
       </c>
       <c r="D24" t="n">
-        <v>159.5827857823561</v>
+        <v>219.6114418637555</v>
       </c>
       <c r="E24" t="n">
-        <v>159.5827857823561</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="F24" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="G24" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="H24" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="I24" t="n">
         <v>14.62699579897294</v>
@@ -6071,7 +6071,7 @@
         <v>14.62699579897294</v>
       </c>
       <c r="K24" t="n">
-        <v>65.45583405098601</v>
+        <v>65.45583405098603</v>
       </c>
       <c r="L24" t="n">
         <v>178.9659573753331</v>
@@ -6080,40 +6080,40 @@
         <v>330.2998638361736</v>
       </c>
       <c r="N24" t="n">
-        <v>499.6875572857933</v>
+        <v>499.6875572857934</v>
       </c>
       <c r="O24" t="n">
-        <v>632.9799039014432</v>
+        <v>632.9799039014438</v>
       </c>
       <c r="P24" t="n">
-        <v>721.1090237341627</v>
+        <v>721.1090237341631</v>
       </c>
       <c r="Q24" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R24" t="n">
-        <v>707.8351064799822</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="S24" t="n">
-        <v>558.7477219819232</v>
+        <v>582.2624054505882</v>
       </c>
       <c r="T24" t="n">
-        <v>374.0634315908508</v>
+        <v>397.5781150595157</v>
       </c>
       <c r="U24" t="n">
-        <v>189.3791411997783</v>
+        <v>392.3645569419383</v>
       </c>
       <c r="V24" t="n">
-        <v>189.3791411997783</v>
+        <v>392.3645569419383</v>
       </c>
       <c r="W24" t="n">
-        <v>189.3791411997783</v>
+        <v>392.3645569419383</v>
       </c>
       <c r="X24" t="n">
-        <v>189.3791411997783</v>
+        <v>392.3645569419383</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.3791411997783</v>
+        <v>392.3645569419383</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="C25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="D25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="E25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="F25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="G25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="H25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="I25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="J25" t="n">
         <v>14.62699579897294</v>
       </c>
       <c r="K25" t="n">
-        <v>14.62699579897294</v>
+        <v>110.9161925022161</v>
       </c>
       <c r="L25" t="n">
-        <v>193.6476315054286</v>
+        <v>289.9368282086718</v>
       </c>
       <c r="M25" t="n">
-        <v>374.6567045177187</v>
+        <v>470.945901220962</v>
       </c>
       <c r="N25" t="n">
-        <v>555.6657775300088</v>
+        <v>607.5537128182509</v>
       </c>
       <c r="O25" t="n">
-        <v>608.8474927092188</v>
+        <v>608.8474927092193</v>
       </c>
       <c r="P25" t="n">
-        <v>730.3718806453433</v>
+        <v>730.3718806453436</v>
       </c>
       <c r="Q25" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R25" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="S25" t="n">
-        <v>546.6654995575744</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="T25" t="n">
-        <v>361.981209166502</v>
+        <v>589.5501282468526</v>
       </c>
       <c r="U25" t="n">
-        <v>199.3112861900454</v>
+        <v>404.8658378557802</v>
       </c>
       <c r="V25" t="n">
-        <v>199.3112861900454</v>
+        <v>220.1815474647076</v>
       </c>
       <c r="W25" t="n">
-        <v>199.3112861900454</v>
+        <v>220.1815474647076</v>
       </c>
       <c r="X25" t="n">
-        <v>199.3112861900454</v>
+        <v>35.49725707363513</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.62699579897294</v>
+        <v>35.49725707363513</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.83550287921565</v>
+        <v>203.5197932702881</v>
       </c>
       <c r="C26" t="n">
-        <v>18.83550287921565</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="D26" t="n">
-        <v>18.83550287921565</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="E26" t="n">
-        <v>14.62699579897294</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="F26" t="n">
-        <v>14.62699579897294</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="G26" t="n">
-        <v>14.62699579897294</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="H26" t="n">
-        <v>14.62699579897294</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="I26" t="n">
         <v>14.62699579897294</v>
       </c>
       <c r="J26" t="n">
-        <v>20.50786881661523</v>
+        <v>20.50786881661525</v>
       </c>
       <c r="K26" t="n">
-        <v>78.79182830082456</v>
+        <v>78.79182830082482</v>
       </c>
       <c r="L26" t="n">
-        <v>187.0774516727202</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M26" t="n">
-        <v>338.4437735878632</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N26" t="n">
-        <v>496.7578240095728</v>
+        <v>496.757824009573</v>
       </c>
       <c r="O26" t="n">
-        <v>633.2474128485937</v>
+        <v>633.247412848594</v>
       </c>
       <c r="P26" t="n">
-        <v>716.0996432869752</v>
+        <v>716.0996432869755</v>
       </c>
       <c r="Q26" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R26" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="S26" t="n">
-        <v>572.8883740524329</v>
+        <v>572.8883740524332</v>
       </c>
       <c r="T26" t="n">
-        <v>388.2040836613605</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="U26" t="n">
+        <v>388.2040836613606</v>
+      </c>
+      <c r="V26" t="n">
+        <v>388.2040836613606</v>
+      </c>
+      <c r="W26" t="n">
+        <v>388.2040836613606</v>
+      </c>
+      <c r="X26" t="n">
+        <v>388.2040836613606</v>
+      </c>
+      <c r="Y26" t="n">
         <v>203.5197932702881</v>
-      </c>
-      <c r="V26" t="n">
-        <v>203.5197932702881</v>
-      </c>
-      <c r="W26" t="n">
-        <v>18.83550287921565</v>
-      </c>
-      <c r="X26" t="n">
-        <v>18.83550287921565</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>18.83550287921565</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.62699579897294</v>
+        <v>468.5712297519964</v>
       </c>
       <c r="C27" t="n">
-        <v>14.62699579897294</v>
+        <v>295.8181146738136</v>
       </c>
       <c r="D27" t="n">
-        <v>14.62699579897294</v>
+        <v>295.8181146738136</v>
       </c>
       <c r="E27" t="n">
-        <v>14.62699579897294</v>
+        <v>295.8181146738136</v>
       </c>
       <c r="F27" t="n">
-        <v>14.62699579897294</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="G27" t="n">
         <v>14.62699579897294</v>
@@ -6323,34 +6323,34 @@
         <v>632.9799039014435</v>
       </c>
       <c r="P27" t="n">
-        <v>721.1090237341627</v>
+        <v>721.1090237341631</v>
       </c>
       <c r="Q27" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R27" t="n">
-        <v>731.3497899486468</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="S27" t="n">
-        <v>731.3497899486468</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="T27" t="n">
-        <v>731.3497899486468</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="U27" t="n">
-        <v>546.6654995575744</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="V27" t="n">
-        <v>361.981209166502</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="W27" t="n">
-        <v>199.3112861900454</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="X27" t="n">
-        <v>199.3112861900454</v>
+        <v>653.2555201430689</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.62699579897294</v>
+        <v>468.5712297519964</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.62699579897294</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="C28" t="n">
-        <v>14.62699579897294</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="D28" t="n">
-        <v>14.62699579897294</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="E28" t="n">
-        <v>14.62699579897294</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="F28" t="n">
-        <v>14.62699579897294</v>
+        <v>183.2383805244852</v>
       </c>
       <c r="G28" t="n">
         <v>14.62699579897294</v>
@@ -6387,49 +6387,49 @@
         <v>14.62699579897294</v>
       </c>
       <c r="K28" t="n">
-        <v>65.93118410408657</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="L28" t="n">
-        <v>77.66786710335779</v>
+        <v>193.6476315054286</v>
       </c>
       <c r="M28" t="n">
-        <v>258.6769401156479</v>
+        <v>374.6567045177188</v>
       </c>
       <c r="N28" t="n">
-        <v>439.6860131279379</v>
+        <v>555.665777530009</v>
       </c>
       <c r="O28" t="n">
-        <v>608.8474927092188</v>
+        <v>724.8272571112899</v>
       </c>
       <c r="P28" t="n">
-        <v>730.3718806453433</v>
+        <v>730.3718806453436</v>
       </c>
       <c r="Q28" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R28" t="n">
-        <v>600.0044349512073</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="S28" t="n">
-        <v>600.0044349512073</v>
+        <v>546.6654995575747</v>
       </c>
       <c r="T28" t="n">
-        <v>600.0044349512073</v>
+        <v>361.9812091665021</v>
       </c>
       <c r="U28" t="n">
-        <v>565.8982952585762</v>
+        <v>361.9812091665021</v>
       </c>
       <c r="V28" t="n">
-        <v>565.8982952585762</v>
+        <v>361.9812091665021</v>
       </c>
       <c r="W28" t="n">
-        <v>381.2140048675038</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="X28" t="n">
-        <v>196.5297144764313</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.5297144764313</v>
+        <v>330.8737556859039</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.62699579897294</v>
+        <v>381.3257004559613</v>
       </c>
       <c r="C29" t="n">
-        <v>14.62699579897294</v>
+        <v>381.3257004559613</v>
       </c>
       <c r="D29" t="n">
-        <v>14.62699579897294</v>
+        <v>381.3257004559613</v>
       </c>
       <c r="E29" t="n">
-        <v>14.62699579897294</v>
+        <v>196.6414100648888</v>
       </c>
       <c r="F29" t="n">
         <v>14.62699579897294</v>
@@ -6463,52 +6463,52 @@
         <v>14.62699579897294</v>
       </c>
       <c r="J29" t="n">
-        <v>20.50786881661529</v>
+        <v>20.50786881661541</v>
       </c>
       <c r="K29" t="n">
-        <v>78.79182830082462</v>
+        <v>78.79182830082475</v>
       </c>
       <c r="L29" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M29" t="n">
-        <v>338.4437735878633</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N29" t="n">
-        <v>496.7578240095729</v>
+        <v>496.757824009573</v>
       </c>
       <c r="O29" t="n">
-        <v>633.2474128485939</v>
+        <v>633.247412848594</v>
       </c>
       <c r="P29" t="n">
-        <v>716.0996432869754</v>
+        <v>716.0996432869755</v>
       </c>
       <c r="Q29" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R29" t="n">
-        <v>724.4714067432474</v>
+        <v>724.4714067432477</v>
       </c>
       <c r="S29" t="n">
-        <v>724.4714067432474</v>
+        <v>566.0099908470338</v>
       </c>
       <c r="T29" t="n">
-        <v>539.787116352175</v>
+        <v>566.0099908470338</v>
       </c>
       <c r="U29" t="n">
-        <v>539.787116352175</v>
+        <v>566.0099908470338</v>
       </c>
       <c r="V29" t="n">
-        <v>355.1028259611026</v>
+        <v>566.0099908470338</v>
       </c>
       <c r="W29" t="n">
-        <v>199.3112861900454</v>
+        <v>566.0099908470338</v>
       </c>
       <c r="X29" t="n">
-        <v>199.3112861900454</v>
+        <v>381.3257004559613</v>
       </c>
       <c r="Y29" t="n">
-        <v>199.3112861900454</v>
+        <v>381.3257004559613</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162.2153024400291</v>
+        <v>374.063431590851</v>
       </c>
       <c r="C30" t="n">
-        <v>162.2153024400291</v>
+        <v>201.3103165126682</v>
       </c>
       <c r="D30" t="n">
-        <v>14.62699579897294</v>
+        <v>201.3103165126682</v>
       </c>
       <c r="E30" t="n">
-        <v>14.62699579897294</v>
+        <v>43.70078751552288</v>
       </c>
       <c r="F30" t="n">
-        <v>14.62699579897294</v>
+        <v>43.70078751552288</v>
       </c>
       <c r="G30" t="n">
-        <v>14.62699579897294</v>
+        <v>43.70078751552288</v>
       </c>
       <c r="H30" t="n">
-        <v>14.62699579897294</v>
+        <v>43.70078751552288</v>
       </c>
       <c r="I30" t="n">
         <v>14.62699579897294</v>
       </c>
       <c r="J30" t="n">
-        <v>14.62699579897294</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="K30" t="n">
-        <v>65.45583405098601</v>
+        <v>65.45583405098603</v>
       </c>
       <c r="L30" t="n">
         <v>178.9659573753331</v>
@@ -6560,34 +6560,34 @@
         <v>632.9799039014435</v>
       </c>
       <c r="P30" t="n">
-        <v>721.1090237341627</v>
+        <v>721.1090237341631</v>
       </c>
       <c r="Q30" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R30" t="n">
-        <v>731.3497899486468</v>
+        <v>707.8351064799825</v>
       </c>
       <c r="S30" t="n">
-        <v>731.3497899486468</v>
+        <v>558.7477219819235</v>
       </c>
       <c r="T30" t="n">
-        <v>731.3497899486468</v>
+        <v>558.7477219819235</v>
       </c>
       <c r="U30" t="n">
-        <v>546.6654995575744</v>
+        <v>558.7477219819235</v>
       </c>
       <c r="V30" t="n">
-        <v>531.5838832221739</v>
+        <v>374.063431590851</v>
       </c>
       <c r="W30" t="n">
-        <v>346.8995928311015</v>
+        <v>374.063431590851</v>
       </c>
       <c r="X30" t="n">
-        <v>162.2153024400291</v>
+        <v>374.063431590851</v>
       </c>
       <c r="Y30" t="n">
-        <v>162.2153024400291</v>
+        <v>374.063431590851</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.62699579897294</v>
+        <v>331.2891921030202</v>
       </c>
       <c r="C31" t="n">
-        <v>14.62699579897294</v>
+        <v>162.2623709603916</v>
       </c>
       <c r="D31" t="n">
-        <v>14.62699579897294</v>
+        <v>162.2623709603916</v>
       </c>
       <c r="E31" t="n">
-        <v>14.62699579897294</v>
+        <v>162.2623709603916</v>
       </c>
       <c r="F31" t="n">
         <v>14.62699579897294</v>
@@ -6627,46 +6627,46 @@
         <v>110.9161925022161</v>
       </c>
       <c r="L31" t="n">
-        <v>289.9368282086718</v>
+        <v>199.1922550394823</v>
       </c>
       <c r="M31" t="n">
-        <v>470.9459012209619</v>
+        <v>380.2013280517725</v>
       </c>
       <c r="N31" t="n">
-        <v>493.7887213271616</v>
+        <v>561.2104010640627</v>
       </c>
       <c r="O31" t="n">
-        <v>608.8474927092188</v>
+        <v>730.3718806453436</v>
       </c>
       <c r="P31" t="n">
-        <v>730.3718806453433</v>
+        <v>730.3718806453436</v>
       </c>
       <c r="Q31" t="n">
-        <v>731.3497899486468</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="R31" t="n">
-        <v>731.3497899486468</v>
+        <v>700.6577728851653</v>
       </c>
       <c r="S31" t="n">
-        <v>731.3497899486468</v>
+        <v>700.6577728851653</v>
       </c>
       <c r="T31" t="n">
-        <v>731.3497899486468</v>
+        <v>700.6577728851653</v>
       </c>
       <c r="U31" t="n">
-        <v>546.6654995575744</v>
+        <v>700.6577728851653</v>
       </c>
       <c r="V31" t="n">
-        <v>361.981209166502</v>
+        <v>515.9734824940928</v>
       </c>
       <c r="W31" t="n">
-        <v>196.5297144764313</v>
+        <v>515.9734824940928</v>
       </c>
       <c r="X31" t="n">
-        <v>196.5297144764313</v>
+        <v>515.9734824940928</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.5297144764313</v>
+        <v>331.2891921030202</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>203.519793270288</v>
+        <v>355.1028259611026</v>
       </c>
       <c r="C32" t="n">
-        <v>203.519793270288</v>
+        <v>170.4185355700301</v>
       </c>
       <c r="D32" t="n">
-        <v>203.519793270288</v>
+        <v>170.4185355700301</v>
       </c>
       <c r="E32" t="n">
-        <v>18.83550287921554</v>
+        <v>170.4185355700301</v>
       </c>
       <c r="F32" t="n">
-        <v>14.62699579897294</v>
+        <v>170.4185355700301</v>
       </c>
       <c r="G32" t="n">
         <v>14.62699579897294</v>
@@ -6700,52 +6700,52 @@
         <v>14.62699579897294</v>
       </c>
       <c r="J32" t="n">
-        <v>20.50786881661527</v>
+        <v>20.50786881661525</v>
       </c>
       <c r="K32" t="n">
-        <v>78.7918283008246</v>
+        <v>78.79182830082459</v>
       </c>
       <c r="L32" t="n">
-        <v>187.0774516727201</v>
+        <v>187.0774516727203</v>
       </c>
       <c r="M32" t="n">
-        <v>338.4437735878631</v>
+        <v>338.4437735878633</v>
       </c>
       <c r="N32" t="n">
-        <v>496.7578240095727</v>
+        <v>496.7578240095729</v>
       </c>
       <c r="O32" t="n">
-        <v>633.2474128485936</v>
+        <v>633.2474128485937</v>
       </c>
       <c r="P32" t="n">
-        <v>716.0996432869753</v>
+        <v>716.0996432869754</v>
       </c>
       <c r="Q32" t="n">
-        <v>731.349789948647</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R32" t="n">
-        <v>731.349789948647</v>
+        <v>724.4714067432476</v>
       </c>
       <c r="S32" t="n">
-        <v>572.8883740524329</v>
+        <v>724.4714067432476</v>
       </c>
       <c r="T32" t="n">
-        <v>572.8883740524329</v>
+        <v>539.7871163521751</v>
       </c>
       <c r="U32" t="n">
-        <v>572.8883740524329</v>
+        <v>355.1028259611026</v>
       </c>
       <c r="V32" t="n">
-        <v>388.2040836613605</v>
+        <v>355.1028259611026</v>
       </c>
       <c r="W32" t="n">
-        <v>388.2040836613605</v>
+        <v>355.1028259611026</v>
       </c>
       <c r="X32" t="n">
-        <v>388.2040836613605</v>
+        <v>355.1028259611026</v>
       </c>
       <c r="Y32" t="n">
-        <v>203.519793270288</v>
+        <v>355.1028259611026</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="C33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="D33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="E33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="F33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="G33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="H33" t="n">
         <v>14.62699579897294</v>
@@ -6788,43 +6788,43 @@
         <v>178.9659573753331</v>
       </c>
       <c r="M33" t="n">
-        <v>330.2998638361734</v>
+        <v>330.2998638361735</v>
       </c>
       <c r="N33" t="n">
-        <v>499.6875572857931</v>
+        <v>499.6875572857932</v>
       </c>
       <c r="O33" t="n">
-        <v>632.9799039014433</v>
+        <v>632.9799039014434</v>
       </c>
       <c r="P33" t="n">
-        <v>721.1090237341629</v>
+        <v>721.109023734163</v>
       </c>
       <c r="Q33" t="n">
-        <v>731.349789948647</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R33" t="n">
-        <v>707.8351064799823</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="S33" t="n">
-        <v>558.7477219819233</v>
+        <v>582.2624054505881</v>
       </c>
       <c r="T33" t="n">
-        <v>374.0634315908508</v>
+        <v>582.2624054505881</v>
       </c>
       <c r="U33" t="n">
-        <v>199.3112861900454</v>
+        <v>484.3528198220472</v>
       </c>
       <c r="V33" t="n">
-        <v>199.3112861900454</v>
+        <v>484.3528198220472</v>
       </c>
       <c r="W33" t="n">
-        <v>199.3112861900454</v>
+        <v>484.3528198220472</v>
       </c>
       <c r="X33" t="n">
-        <v>199.3112861900454</v>
+        <v>299.6685294309747</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.62699579897294</v>
+        <v>114.9842390399022</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.62699579897294</v>
+        <v>442.8879072180777</v>
       </c>
       <c r="C34" t="n">
-        <v>14.62699579897294</v>
+        <v>442.8879072180777</v>
       </c>
       <c r="D34" t="n">
-        <v>14.62699579897294</v>
+        <v>442.8879072180777</v>
       </c>
       <c r="E34" t="n">
-        <v>14.62699579897294</v>
+        <v>442.8879072180777</v>
       </c>
       <c r="F34" t="n">
-        <v>14.62699579897294</v>
+        <v>295.2525320566589</v>
       </c>
       <c r="G34" t="n">
-        <v>14.62699579897294</v>
+        <v>295.2525320566589</v>
       </c>
       <c r="H34" t="n">
-        <v>14.62699579897294</v>
+        <v>140.6460594554596</v>
       </c>
       <c r="I34" t="n">
         <v>14.62699579897294</v>
@@ -6864,46 +6864,46 @@
         <v>110.9161925022161</v>
       </c>
       <c r="L34" t="n">
-        <v>236.8120293127518</v>
+        <v>289.9368282086718</v>
       </c>
       <c r="M34" t="n">
-        <v>417.8211023250419</v>
+        <v>470.9459012209619</v>
       </c>
       <c r="N34" t="n">
-        <v>440.6639224312416</v>
+        <v>562.1883103673662</v>
       </c>
       <c r="O34" t="n">
-        <v>609.8254020125225</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="P34" t="n">
-        <v>731.349789948647</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="Q34" t="n">
-        <v>731.349789948647</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R34" t="n">
-        <v>731.349789948647</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="S34" t="n">
-        <v>546.6654995575745</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="T34" t="n">
-        <v>361.9812091665021</v>
+        <v>627.5721976091502</v>
       </c>
       <c r="U34" t="n">
-        <v>361.9812091665021</v>
+        <v>627.5721976091502</v>
       </c>
       <c r="V34" t="n">
-        <v>361.9812091665021</v>
+        <v>627.5721976091502</v>
       </c>
       <c r="W34" t="n">
-        <v>177.2969187754296</v>
+        <v>442.8879072180777</v>
       </c>
       <c r="X34" t="n">
-        <v>177.2969187754296</v>
+        <v>442.8879072180777</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.2969187754296</v>
+        <v>442.8879072180777</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>203.5197932702881</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="C35" t="n">
-        <v>203.5197932702881</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="D35" t="n">
-        <v>203.5197932702881</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="E35" t="n">
-        <v>203.5197932702881</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="F35" t="n">
         <v>203.5197932702881</v>
       </c>
       <c r="G35" t="n">
-        <v>18.8355028792156</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="H35" t="n">
-        <v>18.8355028792156</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="I35" t="n">
         <v>14.62699579897294</v>
       </c>
       <c r="J35" t="n">
-        <v>20.5078688166152</v>
+        <v>20.50786881661525</v>
       </c>
       <c r="K35" t="n">
-        <v>78.79182830082459</v>
+        <v>78.79182830082482</v>
       </c>
       <c r="L35" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M35" t="n">
-        <v>338.4437735878636</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N35" t="n">
-        <v>496.7578240095731</v>
+        <v>496.757824009573</v>
       </c>
       <c r="O35" t="n">
-        <v>633.2474128485941</v>
+        <v>633.247412848594</v>
       </c>
       <c r="P35" t="n">
         <v>716.0996432869755</v>
@@ -6967,7 +6967,7 @@
         <v>572.8883740524332</v>
       </c>
       <c r="T35" t="n">
-        <v>572.8883740524332</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="U35" t="n">
         <v>388.2040836613606</v>
@@ -6979,10 +6979,10 @@
         <v>388.2040836613606</v>
       </c>
       <c r="X35" t="n">
-        <v>203.5197932702881</v>
+        <v>388.2040836613606</v>
       </c>
       <c r="Y35" t="n">
-        <v>203.5197932702881</v>
+        <v>388.2040836613606</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.20953427737061</v>
+        <v>45.85127354688268</v>
       </c>
       <c r="C36" t="n">
-        <v>14.62699579897294</v>
+        <v>45.85127354688268</v>
       </c>
       <c r="D36" t="n">
         <v>14.62699579897294</v>
@@ -7019,7 +7019,7 @@
         <v>14.62699579897294</v>
       </c>
       <c r="K36" t="n">
-        <v>65.45583405098591</v>
+        <v>65.45583405098601</v>
       </c>
       <c r="L36" t="n">
         <v>178.9659573753331</v>
@@ -7046,22 +7046,22 @@
         <v>582.2624054505882</v>
       </c>
       <c r="T36" t="n">
-        <v>582.2624054505882</v>
+        <v>397.5781150595157</v>
       </c>
       <c r="U36" t="n">
         <v>397.5781150595157</v>
       </c>
       <c r="V36" t="n">
-        <v>212.8938246684431</v>
+        <v>397.5781150595157</v>
       </c>
       <c r="W36" t="n">
         <v>212.8938246684431</v>
       </c>
       <c r="X36" t="n">
-        <v>28.20953427737061</v>
+        <v>212.8938246684431</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.20953427737061</v>
+        <v>212.8938246684431</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.62699579897294</v>
+        <v>361.9812091665021</v>
       </c>
       <c r="C37" t="n">
-        <v>14.62699579897294</v>
+        <v>192.9543880238735</v>
       </c>
       <c r="D37" t="n">
-        <v>14.62699579897294</v>
+        <v>192.9543880238735</v>
       </c>
       <c r="E37" t="n">
-        <v>14.62699579897294</v>
+        <v>183.2383805244852</v>
       </c>
       <c r="F37" t="n">
-        <v>14.62699579897294</v>
+        <v>183.2383805244852</v>
       </c>
       <c r="G37" t="n">
         <v>14.62699579897294</v>
@@ -7107,40 +7107,40 @@
         <v>374.6567045177188</v>
       </c>
       <c r="N37" t="n">
-        <v>439.6860131279384</v>
+        <v>555.665777530009</v>
       </c>
       <c r="O37" t="n">
-        <v>608.8474927092193</v>
+        <v>724.8272571112899</v>
       </c>
       <c r="P37" t="n">
-        <v>730.3718806453436</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="Q37" t="n">
         <v>731.3497899486472</v>
       </c>
       <c r="R37" t="n">
-        <v>600.0044349512076</v>
+        <v>731.3497899486472</v>
       </c>
       <c r="S37" t="n">
-        <v>415.3201445601351</v>
+        <v>546.6654995575747</v>
       </c>
       <c r="T37" t="n">
-        <v>230.6358541690626</v>
+        <v>546.6654995575747</v>
       </c>
       <c r="U37" t="n">
-        <v>45.95156377799003</v>
+        <v>546.6654995575747</v>
       </c>
       <c r="V37" t="n">
-        <v>45.95156377799003</v>
+        <v>546.6654995575747</v>
       </c>
       <c r="W37" t="n">
-        <v>14.62699579897294</v>
+        <v>546.6654995575747</v>
       </c>
       <c r="X37" t="n">
-        <v>14.62699579897294</v>
+        <v>361.9812091665021</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.62699579897294</v>
+        <v>361.9812091665021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>355.1028259611027</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="C38" t="n">
         <v>199.3112861900455</v>
       </c>
       <c r="D38" t="n">
-        <v>14.62699579897294</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="E38" t="n">
-        <v>14.62699579897294</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="F38" t="n">
-        <v>14.62699579897294</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="G38" t="n">
         <v>14.62699579897294</v>
@@ -7174,52 +7174,52 @@
         <v>14.62699579897294</v>
       </c>
       <c r="J38" t="n">
-        <v>20.5078688166153</v>
+        <v>20.50786881661523</v>
       </c>
       <c r="K38" t="n">
-        <v>78.79182830082463</v>
+        <v>78.79182830082456</v>
       </c>
       <c r="L38" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727202</v>
       </c>
       <c r="M38" t="n">
-        <v>338.4437735878633</v>
+        <v>338.4437735878632</v>
       </c>
       <c r="N38" t="n">
-        <v>496.7578240095729</v>
+        <v>496.7578240095728</v>
       </c>
       <c r="O38" t="n">
-        <v>633.2474128485939</v>
+        <v>633.2474128485937</v>
       </c>
       <c r="P38" t="n">
-        <v>716.0996432869755</v>
+        <v>716.0996432869754</v>
       </c>
       <c r="Q38" t="n">
-        <v>731.3497899486472</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R38" t="n">
-        <v>724.4714067432477</v>
+        <v>724.4714067432476</v>
       </c>
       <c r="S38" t="n">
-        <v>724.4714067432477</v>
+        <v>724.4714067432476</v>
       </c>
       <c r="T38" t="n">
-        <v>724.4714067432477</v>
+        <v>568.6798669721904</v>
       </c>
       <c r="U38" t="n">
-        <v>539.7871163521752</v>
+        <v>383.9955765811179</v>
       </c>
       <c r="V38" t="n">
-        <v>539.7871163521752</v>
+        <v>383.9955765811179</v>
       </c>
       <c r="W38" t="n">
-        <v>355.1028259611027</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="X38" t="n">
-        <v>355.1028259611027</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="Y38" t="n">
-        <v>355.1028259611027</v>
+        <v>199.3112861900455</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.20953427737061</v>
+        <v>367.1997485048116</v>
       </c>
       <c r="C39" t="n">
-        <v>14.62699579897294</v>
+        <v>367.1997485048116</v>
       </c>
       <c r="D39" t="n">
-        <v>14.62699579897294</v>
+        <v>219.6114418637555</v>
       </c>
       <c r="E39" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="F39" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="G39" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="H39" t="n">
-        <v>14.62699579897294</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="I39" t="n">
         <v>14.62699579897294</v>
       </c>
       <c r="J39" t="n">
-        <v>14.62699579897294</v>
+        <v>14.62699579897284</v>
       </c>
       <c r="K39" t="n">
-        <v>65.45583405098601</v>
+        <v>65.45583405098591</v>
       </c>
       <c r="L39" t="n">
-        <v>178.9659573753331</v>
+        <v>178.965957375333</v>
       </c>
       <c r="M39" t="n">
-        <v>330.2998638361736</v>
+        <v>330.2998638361735</v>
       </c>
       <c r="N39" t="n">
-        <v>499.6875572857933</v>
+        <v>499.6875572857932</v>
       </c>
       <c r="O39" t="n">
-        <v>632.9799039014435</v>
+        <v>632.9799039014434</v>
       </c>
       <c r="P39" t="n">
-        <v>721.1090237341631</v>
+        <v>721.109023734163</v>
       </c>
       <c r="Q39" t="n">
-        <v>731.3497899486472</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R39" t="n">
-        <v>731.3497899486472</v>
+        <v>707.8351064799824</v>
       </c>
       <c r="S39" t="n">
-        <v>582.2624054505882</v>
+        <v>707.8351064799824</v>
       </c>
       <c r="T39" t="n">
-        <v>582.2624054505882</v>
+        <v>534.2422996263721</v>
       </c>
       <c r="U39" t="n">
-        <v>397.5781150595157</v>
+        <v>534.2422996263721</v>
       </c>
       <c r="V39" t="n">
-        <v>397.5781150595157</v>
+        <v>534.2422996263721</v>
       </c>
       <c r="W39" t="n">
-        <v>397.5781150595157</v>
+        <v>534.2422996263721</v>
       </c>
       <c r="X39" t="n">
-        <v>212.8938246684431</v>
+        <v>534.2422996263721</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.20953427737061</v>
+        <v>534.2422996263721</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.95156377799003</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="C40" t="n">
         <v>14.62699579897294</v>
@@ -7335,49 +7335,49 @@
         <v>14.62699579897294</v>
       </c>
       <c r="K40" t="n">
-        <v>110.9161925022161</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="L40" t="n">
-        <v>122.6528755014874</v>
+        <v>193.6476315054286</v>
       </c>
       <c r="M40" t="n">
-        <v>303.6619485137775</v>
+        <v>259.6548494189517</v>
       </c>
       <c r="N40" t="n">
-        <v>439.6860131279384</v>
+        <v>440.6639224312419</v>
       </c>
       <c r="O40" t="n">
-        <v>608.8474927092193</v>
+        <v>609.8254020125228</v>
       </c>
       <c r="P40" t="n">
-        <v>730.3718806453436</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="Q40" t="n">
-        <v>731.3497899486472</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="R40" t="n">
-        <v>600.0044349512076</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="S40" t="n">
-        <v>415.3201445601351</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="T40" t="n">
-        <v>230.6358541690626</v>
+        <v>731.3497899486471</v>
       </c>
       <c r="U40" t="n">
-        <v>230.6358541690626</v>
+        <v>568.6798669721904</v>
       </c>
       <c r="V40" t="n">
-        <v>230.6358541690626</v>
+        <v>383.9955765811179</v>
       </c>
       <c r="W40" t="n">
-        <v>45.95156377799003</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="X40" t="n">
-        <v>45.95156377799003</v>
+        <v>14.62699579897294</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.95156377799003</v>
+        <v>14.62699579897294</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.83550287921548</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="C41" t="n">
-        <v>14.62699579897293</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="D41" t="n">
-        <v>14.62699579897293</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="E41" t="n">
-        <v>14.62699579897293</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="F41" t="n">
-        <v>14.62699579897293</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="G41" t="n">
-        <v>14.62699579897293</v>
+        <v>199.3112861900455</v>
       </c>
       <c r="H41" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I41" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J41" t="n">
-        <v>20.50786881661526</v>
+        <v>20.5078688166153</v>
       </c>
       <c r="K41" t="n">
-        <v>78.79182830082459</v>
+        <v>78.79182830082463</v>
       </c>
       <c r="L41" t="n">
-        <v>187.07745167272</v>
+        <v>187.0774516727207</v>
       </c>
       <c r="M41" t="n">
-        <v>338.4437735878631</v>
+        <v>338.4437735878637</v>
       </c>
       <c r="N41" t="n">
-        <v>496.7578240095726</v>
+        <v>496.7578240095733</v>
       </c>
       <c r="O41" t="n">
-        <v>633.2474128485934</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P41" t="n">
-        <v>716.099643286975</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q41" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="R41" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="S41" t="n">
-        <v>572.8883740524327</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="T41" t="n">
-        <v>572.8883740524327</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="U41" t="n">
-        <v>388.2040836613603</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="V41" t="n">
-        <v>203.5197932702879</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="W41" t="n">
-        <v>203.5197932702879</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="X41" t="n">
-        <v>18.83550287921548</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.83550287921548</v>
+        <v>383.9955765811181</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>187.3801108771557</v>
+        <v>490.781338382507</v>
       </c>
       <c r="C42" t="n">
-        <v>14.62699579897293</v>
+        <v>490.781338382507</v>
       </c>
       <c r="D42" t="n">
-        <v>14.62699579897293</v>
+        <v>343.1930317414509</v>
       </c>
       <c r="E42" t="n">
-        <v>14.62699579897293</v>
+        <v>343.1930317414509</v>
       </c>
       <c r="F42" t="n">
-        <v>14.62699579897293</v>
+        <v>198.2372417580677</v>
       </c>
       <c r="G42" t="n">
-        <v>14.62699579897293</v>
+        <v>62.00191286661021</v>
       </c>
       <c r="H42" t="n">
-        <v>14.62699579897293</v>
+        <v>62.00191286661021</v>
       </c>
       <c r="I42" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J42" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K42" t="n">
-        <v>65.455834050986</v>
+        <v>65.45583405098603</v>
       </c>
       <c r="L42" t="n">
         <v>178.9659573753331</v>
@@ -7502,40 +7502,40 @@
         <v>330.2998638361736</v>
       </c>
       <c r="N42" t="n">
-        <v>499.6875572857933</v>
+        <v>499.6875572857934</v>
       </c>
       <c r="O42" t="n">
-        <v>632.9799039014431</v>
+        <v>632.9799039014438</v>
       </c>
       <c r="P42" t="n">
-        <v>721.1090237341626</v>
+        <v>721.1090237341633</v>
       </c>
       <c r="Q42" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="R42" t="n">
-        <v>707.8351064799821</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="S42" t="n">
-        <v>558.7477219819231</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="T42" t="n">
-        <v>374.0634315908507</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="U42" t="n">
-        <v>189.3791411997782</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="V42" t="n">
-        <v>189.3791411997782</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="W42" t="n">
-        <v>189.3791411997782</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="X42" t="n">
-        <v>189.3791411997782</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.3801108771557</v>
+        <v>546.6654995575748</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.62699579897293</v>
+        <v>361.9812091665022</v>
       </c>
       <c r="C43" t="n">
-        <v>14.62699579897293</v>
+        <v>361.9812091665022</v>
       </c>
       <c r="D43" t="n">
-        <v>14.62699579897293</v>
+        <v>361.9812091665022</v>
       </c>
       <c r="E43" t="n">
-        <v>14.62699579897293</v>
+        <v>330.8737556859039</v>
       </c>
       <c r="F43" t="n">
-        <v>14.62699579897293</v>
+        <v>183.2383805244852</v>
       </c>
       <c r="G43" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H43" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I43" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J43" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K43" t="n">
-        <v>110.9161925022161</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L43" t="n">
-        <v>245.5355667936703</v>
+        <v>193.6476315054286</v>
       </c>
       <c r="M43" t="n">
-        <v>426.5446398059604</v>
+        <v>374.6567045177188</v>
       </c>
       <c r="N43" t="n">
-        <v>607.5537128182505</v>
+        <v>555.6657775300091</v>
       </c>
       <c r="O43" t="n">
-        <v>608.8474927092188</v>
+        <v>724.82725711129</v>
       </c>
       <c r="P43" t="n">
-        <v>730.3718806453431</v>
+        <v>730.3718806453438</v>
       </c>
       <c r="Q43" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="R43" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="S43" t="n">
-        <v>568.6798669721902</v>
+        <v>731.3497899486474</v>
       </c>
       <c r="T43" t="n">
-        <v>383.9955765811177</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="U43" t="n">
-        <v>199.3112861900453</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="V43" t="n">
-        <v>199.3112861900453</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="W43" t="n">
-        <v>14.62699579897293</v>
+        <v>546.6654995575748</v>
       </c>
       <c r="X43" t="n">
-        <v>14.62699579897293</v>
+        <v>361.9812091665022</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.62699579897293</v>
+        <v>361.9812091665022</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.3112861900453</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="C44" t="n">
-        <v>199.3112861900453</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="D44" t="n">
-        <v>14.62699579897293</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="E44" t="n">
-        <v>14.62699579897293</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="F44" t="n">
-        <v>14.62699579897293</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="G44" t="n">
-        <v>14.62699579897293</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="H44" t="n">
-        <v>14.62699579897293</v>
+        <v>18.83550287921577</v>
       </c>
       <c r="I44" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J44" t="n">
-        <v>20.50786881661529</v>
+        <v>20.50786881661543</v>
       </c>
       <c r="K44" t="n">
-        <v>78.79182830082462</v>
+        <v>78.79182830082459</v>
       </c>
       <c r="L44" t="n">
         <v>187.0774516727203</v>
@@ -7663,37 +7663,37 @@
         <v>496.7578240095729</v>
       </c>
       <c r="O44" t="n">
-        <v>633.2474128485939</v>
+        <v>633.2474128485943</v>
       </c>
       <c r="P44" t="n">
-        <v>716.099643286975</v>
+        <v>716.0996432869758</v>
       </c>
       <c r="Q44" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R44" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S44" t="n">
-        <v>731.3497899486467</v>
+        <v>572.8883740524336</v>
       </c>
       <c r="T44" t="n">
-        <v>731.3497899486467</v>
+        <v>388.204083661361</v>
       </c>
       <c r="U44" t="n">
-        <v>546.6654995575743</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="V44" t="n">
-        <v>546.6654995575743</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="W44" t="n">
-        <v>361.9812091665019</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="X44" t="n">
-        <v>199.3112861900453</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.3112861900453</v>
+        <v>203.5197932702884</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>481.2249687657585</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="C45" t="n">
-        <v>308.4718536875757</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="D45" t="n">
-        <v>308.4718536875757</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="E45" t="n">
-        <v>150.8623246904304</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="F45" t="n">
-        <v>150.8623246904304</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G45" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H45" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I45" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J45" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K45" t="n">
-        <v>65.455834050986</v>
+        <v>65.45583405098637</v>
       </c>
       <c r="L45" t="n">
-        <v>178.9659573753331</v>
+        <v>178.9659573753335</v>
       </c>
       <c r="M45" t="n">
-        <v>330.2998638361731</v>
+        <v>330.2998638361739</v>
       </c>
       <c r="N45" t="n">
-        <v>499.6875572857929</v>
+        <v>499.6875572857937</v>
       </c>
       <c r="O45" t="n">
-        <v>632.9799039014431</v>
+        <v>632.9799039014439</v>
       </c>
       <c r="P45" t="n">
-        <v>721.1090237341626</v>
+        <v>721.1090237341634</v>
       </c>
       <c r="Q45" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R45" t="n">
-        <v>731.3497899486467</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="S45" t="n">
-        <v>731.3497899486467</v>
+        <v>558.7477219819239</v>
       </c>
       <c r="T45" t="n">
-        <v>665.909259156831</v>
+        <v>558.7477219819239</v>
       </c>
       <c r="U45" t="n">
-        <v>665.909259156831</v>
+        <v>528.9513665645013</v>
       </c>
       <c r="V45" t="n">
-        <v>665.909259156831</v>
+        <v>528.9513665645013</v>
       </c>
       <c r="W45" t="n">
-        <v>481.2249687657585</v>
+        <v>528.9513665645013</v>
       </c>
       <c r="X45" t="n">
-        <v>481.2249687657585</v>
+        <v>344.2670761734287</v>
       </c>
       <c r="Y45" t="n">
-        <v>481.2249687657585</v>
+        <v>159.5827857823561</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.2969187754295</v>
+        <v>163.0862121355378</v>
       </c>
       <c r="C46" t="n">
-        <v>177.2969187754295</v>
+        <v>163.0862121355378</v>
       </c>
       <c r="D46" t="n">
-        <v>177.2969187754295</v>
+        <v>163.0862121355378</v>
       </c>
       <c r="E46" t="n">
-        <v>177.2969187754295</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F46" t="n">
-        <v>177.2969187754295</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G46" t="n">
-        <v>177.2969187754295</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J46" t="n">
-        <v>14.62699579897293</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K46" t="n">
-        <v>14.62699579897293</v>
+        <v>21.14952863633042</v>
       </c>
       <c r="L46" t="n">
-        <v>193.6476315054286</v>
+        <v>200.1701643427861</v>
       </c>
       <c r="M46" t="n">
-        <v>374.6567045177187</v>
+        <v>381.1792373550763</v>
       </c>
       <c r="N46" t="n">
-        <v>439.6860131279379</v>
+        <v>562.1883103673666</v>
       </c>
       <c r="O46" t="n">
-        <v>608.8474927092188</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="P46" t="n">
-        <v>730.3718806453431</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="Q46" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R46" t="n">
-        <v>731.3497899486467</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S46" t="n">
-        <v>546.6654995575743</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T46" t="n">
-        <v>361.9812091665019</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="U46" t="n">
-        <v>361.9812091665019</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="V46" t="n">
-        <v>361.9812091665019</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="W46" t="n">
-        <v>361.9812091665019</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="X46" t="n">
-        <v>361.9812091665019</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.2969187754295</v>
+        <v>163.0862121355378</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>14.99474050684199</v>
+        <v>14.99474050684196</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>67.15154516844086</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L13" t="n">
-        <v>168.9736896032166</v>
+        <v>121.6894465222128</v>
       </c>
       <c r="M13" t="n">
-        <v>167.1288489445655</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>159.7638918243337</v>
+        <v>159.7638918243339</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P13" t="n">
         <v>140.4068258466027</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.96888953780736</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>14.99474050684199</v>
+        <v>14.99474050684194</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0135169984386</v>
+        <v>13.7517021466778</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M16" t="n">
-        <v>167.1288489445654</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N16" t="n">
-        <v>159.7638918243337</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O16" t="n">
-        <v>124.1239305981646</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P16" t="n">
-        <v>140.4068258466027</v>
+        <v>24.2433358478481</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>14.99474050684196</v>
+        <v>14.99474050684194</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N19" t="n">
-        <v>159.7638918243336</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P19" t="n">
-        <v>93.12258276559824</v>
+        <v>86.74541282042109</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>14.99474050684196</v>
+        <v>14.99474050684194</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L22" t="n">
-        <v>168.9736896032166</v>
+        <v>77.31250458383296</v>
       </c>
       <c r="M22" t="n">
         <v>167.1288489445655</v>
       </c>
       <c r="N22" t="n">
-        <v>114.9141328192817</v>
+        <v>159.7638918243337</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P22" t="n">
-        <v>140.4068258466027</v>
+        <v>17.6549188404165</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9798,19 +9798,19 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>13.75170214667783</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M25" t="n">
-        <v>167.1288489445655</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N25" t="n">
-        <v>159.7638918243337</v>
+        <v>114.914132819282</v>
       </c>
       <c r="O25" t="n">
-        <v>52.41205584670883</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>140.4068258466027</v>
@@ -10035,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>65.57411457608555</v>
+        <v>13.75170214667783</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>167.1288489445655</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N28" t="n">
-        <v>159.7638918243337</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O28" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P28" t="n">
-        <v>140.4068258466027</v>
+        <v>23.255548672794</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10275,19 +10275,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
-        <v>168.9736896032166</v>
+        <v>77.31250458383333</v>
       </c>
       <c r="M31" t="n">
-        <v>167.1288489445655</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O31" t="n">
-        <v>114.9141328192817</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>140.4068258466027</v>
+        <v>17.65491884041653</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10512,19 +10512,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>115.3122765770348</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M34" t="n">
-        <v>167.1288489445655</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>69.09049398000458</v>
       </c>
       <c r="O34" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P34" t="n">
-        <v>140.4068258466027</v>
+        <v>17.65491884041653</v>
       </c>
       <c r="Q34" t="n">
         <v>66.96888953780734</v>
@@ -10755,16 +10755,16 @@
         <v>167.1288489445656</v>
       </c>
       <c r="N37" t="n">
-        <v>42.61261465052509</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O37" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P37" t="n">
-        <v>140.4068258466027</v>
+        <v>24.24333584784813</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780734</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>13.75170214667783</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M40" t="n">
-        <v>167.1288489445656</v>
+        <v>50.96535894581098</v>
       </c>
       <c r="N40" t="n">
-        <v>114.3244894019809</v>
+        <v>159.7638918243337</v>
       </c>
       <c r="O40" t="n">
         <v>169.5633330205178</v>
@@ -11001,7 +11001,7 @@
         <v>140.4068258466027</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780734</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>13.75170214667783</v>
       </c>
       <c r="L43" t="n">
-        <v>124.1239305981647</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M43" t="n">
-        <v>167.1288489445655</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N43" t="n">
-        <v>159.7638918243337</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P43" t="n">
-        <v>140.4068258466027</v>
+        <v>23.25554867279412</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11457,25 +11457,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>13.75170214667783</v>
+        <v>20.34011915410961</v>
       </c>
       <c r="L46" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>167.1288489445655</v>
+        <v>167.1288489445657</v>
       </c>
       <c r="N46" t="n">
-        <v>42.6126146505248</v>
+        <v>159.7638918243339</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>140.4068258466027</v>
+        <v>17.65491884041653</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780734</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>14.24659947244259</v>
+        <v>14.2465994724426</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>13.83254838793333</v>
+        <v>13.83254838793334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>184.1476481917807</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>195.5615090079063</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23278,7 +23278,7 @@
         <v>316.1274517788472</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>122.3448497289536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>6.809599373345492</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T11" t="n">
-        <v>30.71700041403224</v>
+        <v>213.5544479011939</v>
       </c>
       <c r="U11" t="n">
         <v>251.3057810423084</v>
       </c>
       <c r="V11" t="n">
-        <v>270.6838011282167</v>
+        <v>145.6957740353575</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>167.6926695133927</v>
       </c>
       <c r="X11" t="n">
-        <v>188.0241516440077</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23351,10 +23351,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>96.46295929834895</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I12" t="n">
         <v>46.90116789696089</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S12" t="n">
         <v>147.5965106530784</v>
@@ -23393,19 +23393,19 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U12" t="n">
-        <v>41.74405625092777</v>
+        <v>63.53827999139725</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249324</v>
       </c>
       <c r="W12" t="n">
-        <v>67.15189926283838</v>
+        <v>67.15189926283816</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131638</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.83370393142437</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -23424,10 +23424,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>166.9252708782571</v>
@@ -23439,7 +23439,7 @@
         <v>124.7588730199218</v>
       </c>
       <c r="J13" t="n">
-        <v>20.66155866191558</v>
+        <v>20.66155866191556</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S13" t="n">
-        <v>152.0511916286556</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T13" t="n">
-        <v>224.2121979517808</v>
+        <v>41.37475046461893</v>
       </c>
       <c r="U13" t="n">
-        <v>285.9996712245996</v>
+        <v>103.1622237374378</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>91.89312732024703</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002537</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.91122638060656</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>222.6731862447031</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>173.7672852674368</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -23509,10 +23509,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>229.8675362387192</v>
+        <v>412.7049837258808</v>
       </c>
       <c r="H14" t="n">
-        <v>133.2900042916855</v>
+        <v>133.2900042916853</v>
       </c>
       <c r="I14" t="n">
         <v>122.3448497289536</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.80959937334552</v>
+        <v>2.643177363905053</v>
       </c>
       <c r="S14" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403201</v>
       </c>
       <c r="U14" t="n">
         <v>251.3057810423084</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>145.6957740353575</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23576,25 +23576,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>130.7748570537992</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>134.8729756025429</v>
       </c>
       <c r="H15" t="n">
-        <v>99.35367080851995</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I15" t="n">
-        <v>46.90116789696089</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.27953663397801</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S15" t="n">
-        <v>147.5965106530784</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.90883179085719</v>
+        <v>10.90883179085694</v>
       </c>
       <c r="U15" t="n">
-        <v>180.2404982949591</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23642,7 +23642,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.8337039314244</v>
+        <v>20.83370393142414</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.04046774399191</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23661,22 +23661,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>153.0604078751873</v>
       </c>
       <c r="I16" t="n">
-        <v>124.7588730199218</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.66155866191558</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.0319014474652</v>
+        <v>25.95568338238546</v>
       </c>
       <c r="S16" t="n">
-        <v>22.71452578882179</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T16" t="n">
         <v>224.2121979517808</v>
       </c>
       <c r="U16" t="n">
-        <v>103.162223737438</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>103.2551294002539</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23737,7 +23737,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>202.3711083812519</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -23749,7 +23749,7 @@
         <v>412.7049837258808</v>
       </c>
       <c r="H17" t="n">
-        <v>316.1274517788472</v>
+        <v>133.2900042916853</v>
       </c>
       <c r="I17" t="n">
         <v>122.3448497289536</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>30.71700041403227</v>
+        <v>213.5544479011939</v>
       </c>
       <c r="U17" t="n">
-        <v>68.46833355514678</v>
+        <v>71.11151091905168</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>145.6957740353575</v>
       </c>
       <c r="W17" t="n">
-        <v>167.692669513393</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23816,7 +23816,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -23825,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H18" t="n">
         <v>99.35367080851994</v>
       </c>
       <c r="I18" t="n">
-        <v>44.01045638678981</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S18" t="n">
         <v>147.5965106530784</v>
       </c>
       <c r="T18" t="n">
-        <v>193.7462792780188</v>
+        <v>178.8154791059724</v>
       </c>
       <c r="U18" t="n">
-        <v>41.7440562509278</v>
+        <v>41.74405625092757</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249327</v>
       </c>
       <c r="W18" t="n">
-        <v>67.15189926283841</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>21.62418212131664</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>20.83370393142417</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.04046774399191</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23898,13 +23898,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.0604078751873</v>
@@ -23913,7 +23913,7 @@
         <v>124.7588730199218</v>
       </c>
       <c r="J19" t="n">
-        <v>20.66155866191556</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>205.5519732759834</v>
       </c>
       <c r="T19" t="n">
-        <v>41.37475046461918</v>
+        <v>41.37475046461896</v>
       </c>
       <c r="U19" t="n">
         <v>285.9996712245996</v>
       </c>
       <c r="V19" t="n">
-        <v>70.09890357977753</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>103.2551294002539</v>
+        <v>219.4333746276606</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,10 +23971,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>184.1476481917809</v>
+        <v>362.8186736695023</v>
       </c>
       <c r="D20" t="n">
-        <v>202.3711083812519</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.809599373345463</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.5544479011939</v>
       </c>
       <c r="U20" t="n">
-        <v>68.46833355514673</v>
+        <v>251.3057810423084</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>145.6957740353576</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>188.0241516440076</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.8496242640741</v>
+        <v>203.849624264074</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24062,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>99.35367080851994</v>
       </c>
       <c r="I21" t="n">
-        <v>46.90116789696089</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S21" t="n">
-        <v>9.832823540364444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>10.90883179085714</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U21" t="n">
         <v>224.5815037380894</v>
       </c>
       <c r="V21" t="n">
-        <v>49.07128355249344</v>
+        <v>158.6856825016618</v>
       </c>
       <c r="W21" t="n">
-        <v>67.15189926283836</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>20.83370393142425</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.0604078751873</v>
@@ -24150,7 +24150,7 @@
         <v>124.7588730199218</v>
       </c>
       <c r="J22" t="n">
-        <v>20.66155866191556</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S22" t="n">
-        <v>22.71452578882173</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T22" t="n">
-        <v>41.37475046461913</v>
+        <v>41.37475046461904</v>
       </c>
       <c r="U22" t="n">
-        <v>254.9883489253728</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24192,10 +24192,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>69.84651823862811</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.91122638060654</v>
+        <v>35.91122638060645</v>
       </c>
     </row>
     <row r="23">
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2.643177363905194</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>33.36017777793751</v>
+        <v>30.7170004140321</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3057810423084</v>
+        <v>68.46833355514661</v>
       </c>
       <c r="V23" t="n">
-        <v>145.6957740353576</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>167.6926695133929</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>203.849624264074</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>116.6140317113975</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>134.8729756025429</v>
@@ -24305,7 +24305,7 @@
         <v>99.35367080851994</v>
       </c>
       <c r="I24" t="n">
-        <v>46.90116789696089</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>10.90883179085711</v>
+        <v>10.90883179085702</v>
       </c>
       <c r="U24" t="n">
-        <v>41.74405625092771</v>
+        <v>219.4200812016879</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24387,7 +24387,7 @@
         <v>124.7588730199218</v>
       </c>
       <c r="J25" t="n">
-        <v>20.66155866191556</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S25" t="n">
-        <v>22.7145257888217</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3747504646191</v>
+        <v>83.83053286700422</v>
       </c>
       <c r="U25" t="n">
-        <v>124.9564474779075</v>
+        <v>103.1622237374378</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977736</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>43.30291244514746</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.91122638060651</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>302.3260759112943</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>378.9516137458472</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24463,7 +24463,7 @@
         <v>316.1274517788472</v>
       </c>
       <c r="I26" t="n">
-        <v>122.3448497289536</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>30.71700041403219</v>
+        <v>30.7170004140321</v>
       </c>
       <c r="U26" t="n">
-        <v>68.4683335551467</v>
+        <v>251.3057810423084</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>167.6926695133929</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>203.849624264074</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -24533,10 +24533,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>99.35367080851994</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>147.5965106530784</v>
@@ -24578,19 +24578,19 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U27" t="n">
-        <v>41.74405625092771</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V27" t="n">
-        <v>49.07128355249341</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>88.94612300330795</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>150.4278391349338</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.83370393142431</v>
+        <v>20.83370393142422</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24612,10 +24612,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.0604078751873</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S28" t="n">
-        <v>205.5519732759834</v>
+        <v>22.71452578882162</v>
       </c>
       <c r="T28" t="n">
-        <v>224.2121979517808</v>
+        <v>41.37475046461901</v>
       </c>
       <c r="U28" t="n">
-        <v>252.2345929288949</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>103.2551294002538</v>
+        <v>255.2961979416233</v>
       </c>
       <c r="X28" t="n">
-        <v>43.30291244514754</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.8789625042333</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24688,10 +24688,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>200.2805882681257</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>227.0995933572842</v>
       </c>
       <c r="G29" t="n">
         <v>412.7049837258808</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>30.71700041403219</v>
+        <v>213.5544479011939</v>
       </c>
       <c r="U29" t="n">
         <v>251.3057810423084</v>
       </c>
       <c r="V29" t="n">
-        <v>145.6957740353576</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>196.296492627208</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>188.0241516440076</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24761,13 +24761,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -24779,7 +24779,7 @@
         <v>99.35367080851994</v>
       </c>
       <c r="I30" t="n">
-        <v>46.90116789696089</v>
+        <v>18.11811409757645</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>147.5965106530784</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>193.7462792780188</v>
       </c>
       <c r="U30" t="n">
-        <v>41.74405625092771</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V30" t="n">
-        <v>216.9779308676086</v>
+        <v>49.07128355249333</v>
       </c>
       <c r="W30" t="n">
-        <v>67.15189926283833</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>21.62418212131655</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24849,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.9252708782571</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.0319014474652</v>
+        <v>99.64680455461813</v>
       </c>
       <c r="S31" t="n">
         <v>205.5519732759834</v>
@@ -24894,19 +24894,19 @@
         <v>224.2121979517808</v>
       </c>
       <c r="U31" t="n">
-        <v>103.1622237374379</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V31" t="n">
-        <v>70.09890357977744</v>
+        <v>70.09890357977736</v>
       </c>
       <c r="W31" t="n">
-        <v>122.2955971442456</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>35.91122638060642</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>184.1476481917809</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>200.2805882681257</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1274414711007</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>412.7049837258808</v>
+        <v>258.4713593525343</v>
       </c>
       <c r="H32" t="n">
         <v>316.1274517788472</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>6.809599373345492</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T32" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403213</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3057810423084</v>
+        <v>68.46833355514664</v>
       </c>
       <c r="V32" t="n">
-        <v>145.6957740353576</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>203.8496242640741</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>134.8729756025429</v>
       </c>
       <c r="H33" t="n">
-        <v>99.35367080851994</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>46.90116789696089</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>10.90883179085708</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U33" t="n">
-        <v>51.57687979129204</v>
+        <v>127.651013965834</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25061,10 +25061,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131649</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.83370393142428</v>
+        <v>20.83370393142425</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.04046774399168</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -25086,16 +25086,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.9252708782571</v>
       </c>
       <c r="H34" t="n">
-        <v>153.0604078751873</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>124.7588730199218</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>20.66155866191556</v>
@@ -25125,10 +25125,10 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S34" t="n">
-        <v>22.71452578882167</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T34" t="n">
-        <v>41.37475046461907</v>
+        <v>121.4723815356789</v>
       </c>
       <c r="U34" t="n">
         <v>285.9996712245996</v>
@@ -25165,16 +25165,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>224.456415993379</v>
       </c>
       <c r="G35" t="n">
-        <v>229.867536238719</v>
+        <v>348.0459639582324</v>
       </c>
       <c r="H35" t="n">
         <v>316.1274517788472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.1784277195134</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.5544479011939</v>
+        <v>30.7170004140321</v>
       </c>
       <c r="U35" t="n">
-        <v>68.46833355514661</v>
+        <v>251.3057810423084</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25219,7 +25219,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>188.0241516440076</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>157.5788708337873</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>115.2003886042149</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -25286,19 +25286,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>193.7462792780188</v>
+        <v>10.90883179085702</v>
       </c>
       <c r="U36" t="n">
-        <v>41.74405625092763</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V36" t="n">
-        <v>49.07128355249333</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>67.15189926283824</v>
       </c>
       <c r="X36" t="n">
-        <v>21.62418212131647</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -25314,19 +25314,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>137.3557767488047</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.0604078751873</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S37" t="n">
         <v>22.71452578882162</v>
       </c>
       <c r="T37" t="n">
-        <v>41.37475046461901</v>
+        <v>224.2121979517808</v>
       </c>
       <c r="U37" t="n">
-        <v>103.1622237374378</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>255.0812545881886</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>43.30291244514746</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25393,10 +25393,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>212.751471305596</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>173.7672852674366</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -25405,7 +25405,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>412.7049837258808</v>
+        <v>229.8675362387191</v>
       </c>
       <c r="H38" t="n">
         <v>316.1274517788472</v>
@@ -25444,10 +25444,10 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T38" t="n">
-        <v>213.5544479011939</v>
+        <v>59.32082352784732</v>
       </c>
       <c r="U38" t="n">
-        <v>68.46833355514661</v>
+        <v>68.46833355514664</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>157.5788708337873</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -25490,7 +25490,7 @@
         <v>99.35367080851994</v>
       </c>
       <c r="I39" t="n">
-        <v>46.90116789696089</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T39" t="n">
-        <v>193.7462792780188</v>
+        <v>21.88940049294459</v>
       </c>
       <c r="U39" t="n">
-        <v>41.74405625092763</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25535,10 +25535,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>21.62418212131647</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83370393142422</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>136.3252306319754</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S40" t="n">
-        <v>22.71452578882162</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T40" t="n">
-        <v>41.37475046461901</v>
+        <v>224.2121979517808</v>
       </c>
       <c r="U40" t="n">
-        <v>285.9996712245996</v>
+        <v>124.9564474779076</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977739</v>
       </c>
       <c r="W40" t="n">
-        <v>103.2551294002537</v>
+        <v>103.2551294002538</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>43.30291244514748</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25630,7 +25630,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>362.8186736695025</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25639,13 +25639,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>224.456415993379</v>
       </c>
       <c r="G41" t="n">
         <v>412.7049837258808</v>
       </c>
       <c r="H41" t="n">
-        <v>316.1274517788472</v>
+        <v>133.2900042916853</v>
       </c>
       <c r="I41" t="n">
         <v>122.3448497289536</v>
@@ -25678,22 +25678,22 @@
         <v>6.809599373345492</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T41" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403204</v>
       </c>
       <c r="U41" t="n">
-        <v>68.46833355514673</v>
+        <v>251.3057810423084</v>
       </c>
       <c r="V41" t="n">
-        <v>145.6957740353577</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>188.0241516440077</v>
+        <v>209.8183753844773</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>110.0468060470277</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>99.35367080851994</v>
       </c>
       <c r="I42" t="n">
-        <v>46.90116789696089</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.279536633978</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T42" t="n">
-        <v>10.90883179085714</v>
+        <v>10.90883179085696</v>
       </c>
       <c r="U42" t="n">
-        <v>41.74405625092774</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25775,7 +25775,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.6921113991897</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>116.1782452274069</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.0604078751873</v>
@@ -25836,22 +25836,22 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S43" t="n">
-        <v>44.50874952929146</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T43" t="n">
-        <v>41.37475046461913</v>
+        <v>41.37475046461896</v>
       </c>
       <c r="U43" t="n">
-        <v>103.162223737438</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>103.2551294002538</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>43.3029124451474</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25870,7 +25870,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>173.7672852674367</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -25882,10 +25882,10 @@
         <v>412.7049837258808</v>
       </c>
       <c r="H44" t="n">
-        <v>316.1274517788472</v>
+        <v>133.2900042916853</v>
       </c>
       <c r="I44" t="n">
-        <v>122.3448497289536</v>
+        <v>118.1784277195133</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>6.809599373345492</v>
       </c>
       <c r="S44" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403201</v>
       </c>
       <c r="U44" t="n">
-        <v>68.46833355514673</v>
+        <v>68.46833355514653</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>167.6926695133929</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>209.8183753844774</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -25946,19 +25946,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H45" t="n">
         <v>99.35367080851994</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.279536633978</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>147.5965106530784</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.9601537941213</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U45" t="n">
-        <v>224.5815037380894</v>
+        <v>195.0831118748411</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>67.15189926283836</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131638</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>20.83370393142414</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -26040,13 +26040,13 @@
         <v>166.9252708782571</v>
       </c>
       <c r="H46" t="n">
-        <v>12.67874279041089</v>
+        <v>153.0604078751873</v>
       </c>
       <c r="I46" t="n">
         <v>124.7588730199218</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>20.66155866191556</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S46" t="n">
-        <v>22.71452578882173</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T46" t="n">
-        <v>41.37475046461913</v>
+        <v>41.37475046461893</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9996712245996</v>
+        <v>103.1622237374378</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26088,10 +26088,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>43.30291244514737</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.91122638060654</v>
+        <v>204.6800742942753</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>368504.0913458766</v>
+        <v>368504.0913458769</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>368504.0913458766</v>
+        <v>368504.0913458767</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>368504.0913458767</v>
+        <v>368504.0913458768</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>368504.0913458767</v>
+        <v>368504.0913458766</v>
       </c>
     </row>
     <row r="15">
@@ -26316,34 +26316,34 @@
         <v>609117.2833168053</v>
       </c>
       <c r="C2" t="n">
-        <v>609153.5908229093</v>
+        <v>609153.590822909</v>
       </c>
       <c r="D2" t="n">
-        <v>609178.3096726546</v>
+        <v>609178.3096726543</v>
       </c>
       <c r="E2" t="n">
-        <v>264363.9253173747</v>
+        <v>264363.9253173749</v>
       </c>
       <c r="F2" t="n">
+        <v>264363.9253173749</v>
+      </c>
+      <c r="G2" t="n">
         <v>264363.9253173748</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>264363.9253173749</v>
-      </c>
-      <c r="H2" t="n">
-        <v>264363.9253173747</v>
       </c>
       <c r="I2" t="n">
         <v>264363.9253173748</v>
       </c>
       <c r="J2" t="n">
-        <v>264363.9253173748</v>
+        <v>264363.9253173749</v>
       </c>
       <c r="K2" t="n">
         <v>264363.9253173749</v>
       </c>
       <c r="L2" t="n">
-        <v>264363.9253173749</v>
+        <v>264363.9253173748</v>
       </c>
       <c r="M2" t="n">
         <v>264363.9253173748</v>
@@ -26355,7 +26355,7 @@
         <v>264363.9253173748</v>
       </c>
       <c r="P2" t="n">
-        <v>264363.9253173748</v>
+        <v>264363.9253173749</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>137757.0319717017</v>
+        <v>137757.0319717008</v>
       </c>
       <c r="D3" t="n">
-        <v>88206.53744036921</v>
+        <v>88206.53744037013</v>
       </c>
       <c r="E3" t="n">
-        <v>279931.0864023245</v>
+        <v>279931.0864023247</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45563.82326359065</v>
+        <v>45563.8232635907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>463552.1206356916</v>
       </c>
       <c r="C4" t="n">
-        <v>410823.330371634</v>
+        <v>410823.3303716345</v>
       </c>
       <c r="D4" t="n">
-        <v>375267.9674303001</v>
+        <v>375267.9674303002</v>
       </c>
       <c r="E4" t="n">
-        <v>16177.40535899167</v>
+        <v>16177.40535899168</v>
       </c>
       <c r="F4" t="n">
         <v>16177.40535899167</v>
       </c>
       <c r="G4" t="n">
-        <v>16177.40535899166</v>
+        <v>16177.40535899167</v>
       </c>
       <c r="H4" t="n">
         <v>16177.40535899167</v>
       </c>
       <c r="I4" t="n">
-        <v>16177.40535899166</v>
+        <v>16177.40535899167</v>
       </c>
       <c r="J4" t="n">
         <v>16177.40535899167</v>
@@ -26453,13 +26453,13 @@
         <v>16177.40535899167</v>
       </c>
       <c r="N4" t="n">
-        <v>16177.40535899168</v>
+        <v>16177.40535899167</v>
       </c>
       <c r="O4" t="n">
         <v>16177.40535899167</v>
       </c>
       <c r="P4" t="n">
-        <v>16177.40535899167</v>
+        <v>16177.40535899168</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>36925.53180443608</v>
+        <v>36925.53180443605</v>
       </c>
       <c r="D5" t="n">
         <v>39170.82732295871</v>
       </c>
       <c r="E5" t="n">
-        <v>22774.24540132321</v>
+        <v>22774.24540132323</v>
       </c>
       <c r="F5" t="n">
-        <v>22774.24540132321</v>
+        <v>22774.24540132323</v>
       </c>
       <c r="G5" t="n">
-        <v>22774.24540132321</v>
+        <v>22774.24540132323</v>
       </c>
       <c r="H5" t="n">
-        <v>22774.24540132321</v>
+        <v>22774.24540132322</v>
       </c>
       <c r="I5" t="n">
         <v>22774.24540132322</v>
@@ -26508,10 +26508,10 @@
         <v>22774.24540132322</v>
       </c>
       <c r="O5" t="n">
-        <v>22774.24540132321</v>
+        <v>22774.24540132323</v>
       </c>
       <c r="P5" t="n">
-        <v>22774.24540132321</v>
+        <v>22774.24540132323</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111937.5626811137</v>
+        <v>111893.4869096337</v>
       </c>
       <c r="C6" t="n">
-        <v>23647.69667513738</v>
+        <v>23604.83115386131</v>
       </c>
       <c r="D6" t="n">
-        <v>106532.9774790266</v>
+        <v>106490.935919407</v>
       </c>
       <c r="E6" t="n">
-        <v>-54518.81184526467</v>
+        <v>-66054.66621672556</v>
       </c>
       <c r="F6" t="n">
-        <v>225412.2745570599</v>
+        <v>213876.4201855991</v>
       </c>
       <c r="G6" t="n">
-        <v>225412.27455706</v>
+        <v>213876.420185599</v>
       </c>
       <c r="H6" t="n">
-        <v>225412.2745570598</v>
+        <v>213876.4201855991</v>
       </c>
       <c r="I6" t="n">
-        <v>225412.2745570599</v>
+        <v>213876.420185599</v>
       </c>
       <c r="J6" t="n">
-        <v>225412.2745570599</v>
+        <v>213876.4201855991</v>
       </c>
       <c r="K6" t="n">
-        <v>225412.27455706</v>
+        <v>213876.4201855991</v>
       </c>
       <c r="L6" t="n">
-        <v>225412.27455706</v>
+        <v>213876.420185599</v>
       </c>
       <c r="M6" t="n">
-        <v>179848.4512934693</v>
+        <v>168312.5969220083</v>
       </c>
       <c r="N6" t="n">
-        <v>225412.27455706</v>
+        <v>213876.4201855991</v>
       </c>
       <c r="O6" t="n">
-        <v>225412.2745570599</v>
+        <v>213876.420185599</v>
       </c>
       <c r="P6" t="n">
-        <v>225412.2745570599</v>
+        <v>213876.4201855991</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>151.2812754328475</v>
+        <v>151.2812754328464</v>
       </c>
       <c r="D3" t="n">
         <v>254.2764827045282</v>
       </c>
       <c r="E3" t="n">
-        <v>534.7581923900817</v>
+        <v>534.7581923900818</v>
       </c>
       <c r="F3" t="n">
-        <v>534.7581923900817</v>
+        <v>534.7581923900819</v>
       </c>
       <c r="G3" t="n">
-        <v>534.7581923900818</v>
+        <v>534.7581923900819</v>
       </c>
       <c r="H3" t="n">
-        <v>534.7581923900818</v>
+        <v>534.7581923900819</v>
       </c>
       <c r="I3" t="n">
         <v>534.7581923900818</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="F4" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="G4" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="H4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="I4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="J4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="K4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="L4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="M4" t="n">
         <v>182.8374474871618</v>
@@ -26828,10 +26828,10 @@
         <v>182.8374474871618</v>
       </c>
       <c r="O4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="P4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>151.2812754328475</v>
+        <v>151.2812754328464</v>
       </c>
       <c r="D3" t="n">
-        <v>102.9952072716808</v>
+        <v>102.9952072716818</v>
       </c>
       <c r="E3" t="n">
-        <v>280.4817096855535</v>
+        <v>280.4817096855536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27636,40 +27636,40 @@
         <v>331.9155240433226</v>
       </c>
       <c r="I5" t="n">
-        <v>181.7779907982754</v>
+        <v>181.7779907982755</v>
       </c>
       <c r="J5" t="n">
-        <v>124.9024336943487</v>
+        <v>124.9024336943491</v>
       </c>
       <c r="K5" t="n">
-        <v>137.2266176740176</v>
+        <v>137.2266176740181</v>
       </c>
       <c r="L5" t="n">
-        <v>133.8991093781734</v>
+        <v>133.8991093781741</v>
       </c>
       <c r="M5" t="n">
-        <v>117.7989612966996</v>
+        <v>117.7989612967003</v>
       </c>
       <c r="N5" t="n">
-        <v>115.1611694542277</v>
+        <v>115.1611694542284</v>
       </c>
       <c r="O5" t="n">
-        <v>121.8766385639388</v>
+        <v>121.8766385639395</v>
       </c>
       <c r="P5" t="n">
-        <v>137.9971497203315</v>
+        <v>137.9971497203321</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.0729689043766</v>
+        <v>151.072968904377</v>
       </c>
       <c r="R5" t="n">
-        <v>171.9931961812065</v>
+        <v>171.9931961812068</v>
       </c>
       <c r="S5" t="n">
-        <v>192.0063705620276</v>
+        <v>192.0063705620277</v>
       </c>
       <c r="T5" t="n">
-        <v>220.3028708317679</v>
+        <v>220.302870831768</v>
       </c>
       <c r="U5" t="n">
         <v>251.4291103020334</v>
@@ -27712,40 +27712,40 @@
         <v>135.6978127446773</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3198611022919</v>
+        <v>107.319861102292</v>
       </c>
       <c r="I6" t="n">
-        <v>85.83094302690705</v>
+        <v>85.83094302690712</v>
       </c>
       <c r="J6" t="n">
-        <v>92.92376190472675</v>
+        <v>92.92376190472696</v>
       </c>
       <c r="K6" t="n">
-        <v>81.85084906027222</v>
+        <v>81.85084906027259</v>
       </c>
       <c r="L6" t="n">
-        <v>64.43788311270646</v>
+        <v>64.43788311270696</v>
       </c>
       <c r="M6" t="n">
-        <v>56.13238796306601</v>
+        <v>56.13238796306659</v>
       </c>
       <c r="N6" t="n">
-        <v>43.42771313132147</v>
+        <v>43.42771313132205</v>
       </c>
       <c r="O6" t="n">
-        <v>61.61100485780807</v>
+        <v>61.61100485780861</v>
       </c>
       <c r="P6" t="n">
-        <v>68.48840411769545</v>
+        <v>68.48840411769589</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.94552935464841</v>
+        <v>94.9455293546487</v>
       </c>
       <c r="R6" t="n">
-        <v>121.8343301853612</v>
+        <v>121.8343301853613</v>
       </c>
       <c r="S6" t="n">
-        <v>162.917498797549</v>
+        <v>162.9174987975491</v>
       </c>
       <c r="T6" t="n">
         <v>197.0709517939028</v>
@@ -27797,31 +27797,31 @@
         <v>145.5546376313076</v>
       </c>
       <c r="J7" t="n">
-        <v>104.5334132961775</v>
+        <v>104.5334132961777</v>
       </c>
       <c r="K7" t="n">
-        <v>94.09325950263609</v>
+        <v>94.0932595026363</v>
       </c>
       <c r="L7" t="n">
-        <v>90.95429743275179</v>
+        <v>90.95429743275207</v>
       </c>
       <c r="M7" t="n">
-        <v>92.6896388195938</v>
+        <v>92.68963881959409</v>
       </c>
       <c r="N7" t="n">
-        <v>82.74721389686266</v>
+        <v>82.74721389686295</v>
       </c>
       <c r="O7" t="n">
-        <v>96.43575990153175</v>
+        <v>96.43575990153201</v>
       </c>
       <c r="P7" t="n">
-        <v>101.2906057781058</v>
+        <v>101.290605778106</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.8739039983497</v>
+        <v>124.8739039983499</v>
       </c>
       <c r="R7" t="n">
-        <v>161.124964255178</v>
+        <v>161.1249642551781</v>
       </c>
       <c r="S7" t="n">
         <v>217.6032068793772</v>
@@ -27879,16 +27879,16 @@
         <v>89.76036546048012</v>
       </c>
       <c r="K8" t="n">
-        <v>84.5577670328716</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L8" t="n">
         <v>68.55874285947689</v>
       </c>
       <c r="M8" t="n">
-        <v>45.09521380386133</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N8" t="n">
-        <v>41.28099931752749</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O8" t="n">
         <v>52.11368889882766</v>
@@ -27958,10 +27958,10 @@
         <v>71.99338681190339</v>
       </c>
       <c r="K9" t="n">
-        <v>46.07750428554138</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L9" t="n">
-        <v>16.33620635813517</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>26.18458021020076</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.66654338828052</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R9" t="n">
         <v>108.0796117500979</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.608165931388331</v>
+        <v>0.6081659313883268</v>
       </c>
       <c r="H5" t="n">
-        <v>6.228379344830747</v>
+        <v>6.228379344830703</v>
       </c>
       <c r="I5" t="n">
-        <v>23.44631706984865</v>
+        <v>23.44631706984849</v>
       </c>
       <c r="J5" t="n">
-        <v>51.61732321917041</v>
+        <v>51.61732321917005</v>
       </c>
       <c r="K5" t="n">
-        <v>77.36098709483848</v>
+        <v>77.36098709483794</v>
       </c>
       <c r="L5" t="n">
-        <v>95.97314521756412</v>
+        <v>95.97314521756346</v>
       </c>
       <c r="M5" t="n">
-        <v>106.7886160998914</v>
+        <v>106.7886160998906</v>
       </c>
       <c r="N5" t="n">
-        <v>108.5165675524485</v>
+        <v>108.5165675524477</v>
       </c>
       <c r="O5" t="n">
-        <v>102.4691175722057</v>
+        <v>102.469117572205</v>
       </c>
       <c r="P5" t="n">
-        <v>87.45502114105631</v>
+        <v>87.4550211410557</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.67507872321167</v>
+        <v>65.67507872321121</v>
       </c>
       <c r="R5" t="n">
-        <v>38.20270318757228</v>
+        <v>38.20270318757201</v>
       </c>
       <c r="S5" t="n">
-        <v>13.85858116151161</v>
+        <v>13.85858116151151</v>
       </c>
       <c r="T5" t="n">
-        <v>2.66224636465242</v>
+        <v>2.662246364652402</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04865327451106647</v>
+        <v>0.04865327451106613</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3253974603649926</v>
+        <v>0.3253974603649904</v>
       </c>
       <c r="H6" t="n">
-        <v>3.14265441984085</v>
+        <v>3.142654419840829</v>
       </c>
       <c r="I6" t="n">
-        <v>11.20337747309295</v>
+        <v>11.20337747309287</v>
       </c>
       <c r="J6" t="n">
-        <v>30.74292409527328</v>
+        <v>30.74292409527306</v>
       </c>
       <c r="K6" t="n">
-        <v>52.54455393972778</v>
+        <v>52.54455393972742</v>
       </c>
       <c r="L6" t="n">
-        <v>70.65263717267089</v>
+        <v>70.6526371726704</v>
       </c>
       <c r="M6" t="n">
-        <v>82.44829511090185</v>
+        <v>82.44829511090127</v>
       </c>
       <c r="N6" t="n">
-        <v>84.63045614992851</v>
+        <v>84.63045614992792</v>
       </c>
       <c r="O6" t="n">
-        <v>77.42033347552524</v>
+        <v>77.4203334755247</v>
       </c>
       <c r="P6" t="n">
-        <v>62.13664311127654</v>
+        <v>62.13664311127611</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.53670037922257</v>
+        <v>41.53670037922228</v>
       </c>
       <c r="R6" t="n">
-        <v>20.20318617950367</v>
+        <v>20.20318617950353</v>
       </c>
       <c r="S6" t="n">
-        <v>6.044115108095363</v>
+        <v>6.044115108095322</v>
       </c>
       <c r="T6" t="n">
-        <v>1.311580114365913</v>
+        <v>1.311580114365904</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02140772765559163</v>
+        <v>0.02140772765559148</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2728022999608724</v>
+        <v>0.2728022999608705</v>
       </c>
       <c r="H7" t="n">
-        <v>2.425460448743031</v>
+        <v>2.425460448743014</v>
       </c>
       <c r="I7" t="n">
-        <v>8.203909166096057</v>
+        <v>8.203909166096</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28712260723368</v>
+        <v>19.28712260723355</v>
       </c>
       <c r="K7" t="n">
-        <v>31.6946672136359</v>
+        <v>31.69466721363568</v>
       </c>
       <c r="L7" t="n">
-        <v>40.55826194145553</v>
+        <v>40.55826194145525</v>
       </c>
       <c r="M7" t="n">
-        <v>42.76300052932111</v>
+        <v>42.76300052932082</v>
       </c>
       <c r="N7" t="n">
-        <v>41.74619195673971</v>
+        <v>41.74619195673942</v>
       </c>
       <c r="O7" t="n">
-        <v>38.55936508901496</v>
+        <v>38.5593650890147</v>
       </c>
       <c r="P7" t="n">
-        <v>32.99419816981314</v>
+        <v>32.99419816981291</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.84347259035997</v>
+        <v>22.84347259035981</v>
       </c>
       <c r="R7" t="n">
-        <v>12.26618341460432</v>
+        <v>12.26618341460423</v>
       </c>
       <c r="S7" t="n">
-        <v>4.754200082045384</v>
+        <v>4.754200082045351</v>
       </c>
       <c r="T7" t="n">
-        <v>1.165609827105546</v>
+        <v>1.165609827105538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01488012545241124</v>
+        <v>0.01488012545241114</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31527,7 +31527,7 @@
         <v>86.75939145303902</v>
       </c>
       <c r="K8" t="n">
-        <v>130.0298377359844</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L8" t="n">
         <v>161.3135117362607</v>
@@ -31551,13 +31551,13 @@
         <v>64.21183962487768</v>
       </c>
       <c r="S8" t="n">
-        <v>23.29377024976658</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T8" t="n">
-        <v>4.474754987091747</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08177736127180799</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.5469343212889852</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2822341029752</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I9" t="n">
         <v>18.83085272859006</v>
@@ -31606,7 +31606,7 @@
         <v>51.67329918809664</v>
       </c>
       <c r="K9" t="n">
-        <v>88.31789871445864</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L9" t="n">
         <v>118.7543139272422</v>
@@ -31624,19 +31624,19 @@
         <v>104.4404670187712</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.81568634559046</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R9" t="n">
         <v>33.95790461476701</v>
       </c>
       <c r="S9" t="n">
-        <v>10.15906513446864</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T9" t="n">
         <v>2.204529128353409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03598252113743325</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31709,7 +31709,7 @@
         <v>20.61723743371469</v>
       </c>
       <c r="S10" t="n">
-        <v>7.990951104009514</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T10" t="n">
         <v>1.959179456903741</v>
@@ -31758,25 +31758,25 @@
         <v>22.01645160930622</v>
       </c>
       <c r="I11" t="n">
-        <v>82.87945813917037</v>
+        <v>82.87945813917038</v>
       </c>
       <c r="J11" t="n">
         <v>182.4600326889154</v>
       </c>
       <c r="K11" t="n">
-        <v>273.4602911165421</v>
+        <v>273.4602911165422</v>
       </c>
       <c r="L11" t="n">
         <v>339.2516721431069</v>
       </c>
       <c r="M11" t="n">
-        <v>377.4828520583515</v>
+        <v>377.4828520583516</v>
       </c>
       <c r="N11" t="n">
-        <v>383.5909192508272</v>
+        <v>383.5909192508273</v>
       </c>
       <c r="O11" t="n">
-        <v>362.2140276907111</v>
+        <v>362.2140276907112</v>
       </c>
       <c r="P11" t="n">
         <v>309.1412925163186</v>
@@ -31788,10 +31788,10 @@
         <v>135.0412233275316</v>
       </c>
       <c r="S11" t="n">
-        <v>48.9881499862874</v>
+        <v>48.98814998628741</v>
       </c>
       <c r="T11" t="n">
-        <v>9.410669295226461</v>
+        <v>9.410669295226462</v>
       </c>
       <c r="U11" t="n">
         <v>0.171982534236006</v>
@@ -31837,25 +31837,25 @@
         <v>11.10884471361283</v>
       </c>
       <c r="I12" t="n">
-        <v>39.60237556851077</v>
+        <v>39.60237556851078</v>
       </c>
       <c r="J12" t="n">
-        <v>108.671945493158</v>
+        <v>108.6719454931581</v>
       </c>
       <c r="K12" t="n">
         <v>185.7376638606193</v>
       </c>
       <c r="L12" t="n">
-        <v>249.7472105119905</v>
+        <v>249.7472105119906</v>
       </c>
       <c r="M12" t="n">
-        <v>291.4432148525945</v>
+        <v>291.4432148525946</v>
       </c>
       <c r="N12" t="n">
-        <v>299.1568495333911</v>
+        <v>299.1568495333912</v>
       </c>
       <c r="O12" t="n">
-        <v>273.6700722885355</v>
+        <v>273.6700722885356</v>
       </c>
       <c r="P12" t="n">
         <v>219.6443601913149</v>
@@ -31864,16 +31864,16 @@
         <v>146.8264380313296</v>
       </c>
       <c r="R12" t="n">
-        <v>71.41544312711321</v>
+        <v>71.41544312711322</v>
       </c>
       <c r="S12" t="n">
         <v>21.36510325256599</v>
       </c>
       <c r="T12" t="n">
-        <v>4.636252630249857</v>
+        <v>4.636252630249858</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07567332911180405</v>
+        <v>0.07567332911180406</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9643180518509669</v>
+        <v>0.9643180518509671</v>
       </c>
       <c r="H13" t="n">
-        <v>8.573664133729512</v>
+        <v>8.573664133729514</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99967377748181</v>
+        <v>28.99967377748182</v>
       </c>
       <c r="J13" t="n">
-        <v>68.17728626586336</v>
+        <v>68.17728626586337</v>
       </c>
       <c r="K13" t="n">
-        <v>112.0362245695941</v>
+        <v>112.0362245695942</v>
       </c>
       <c r="L13" t="n">
         <v>143.3677947270065</v>
@@ -31937,22 +31937,22 @@
         <v>136.3019733652622</v>
       </c>
       <c r="P13" t="n">
-        <v>116.6298851075023</v>
+        <v>116.6298851075024</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.74848705090234</v>
+        <v>80.74848705090236</v>
       </c>
       <c r="R13" t="n">
-        <v>43.3592462223171</v>
+        <v>43.35924622231711</v>
       </c>
       <c r="S13" t="n">
         <v>16.80543368543912</v>
       </c>
       <c r="T13" t="n">
-        <v>4.120268039726858</v>
+        <v>4.120268039726859</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05259916646459826</v>
+        <v>0.05259916646459827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>2.149781677950076</v>
       </c>
       <c r="H14" t="n">
-        <v>22.01645160930622</v>
+        <v>22.01645160930623</v>
       </c>
       <c r="I14" t="n">
-        <v>82.87945813917037</v>
+        <v>82.87945813917041</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4600326889154</v>
+        <v>182.4600326889155</v>
       </c>
       <c r="K14" t="n">
-        <v>273.4602911165421</v>
+        <v>273.4602911165423</v>
       </c>
       <c r="L14" t="n">
-        <v>339.2516721431069</v>
+        <v>339.251672143107</v>
       </c>
       <c r="M14" t="n">
-        <v>377.4828520583515</v>
+        <v>377.4828520583516</v>
       </c>
       <c r="N14" t="n">
-        <v>383.5909192508272</v>
+        <v>383.5909192508274</v>
       </c>
       <c r="O14" t="n">
-        <v>362.2140276907111</v>
+        <v>362.2140276907112</v>
       </c>
       <c r="P14" t="n">
-        <v>309.1412925163186</v>
+        <v>309.1412925163187</v>
       </c>
       <c r="Q14" t="n">
-        <v>232.1522361747314</v>
+        <v>232.1522361747315</v>
       </c>
       <c r="R14" t="n">
         <v>135.0412233275316</v>
       </c>
       <c r="S14" t="n">
-        <v>48.9881499862874</v>
+        <v>48.98814998628742</v>
       </c>
       <c r="T14" t="n">
-        <v>9.410669295226461</v>
+        <v>9.410669295226464</v>
       </c>
       <c r="U14" t="n">
-        <v>0.171982534236006</v>
+        <v>0.1719825342360061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.150234602499421</v>
+        <v>1.150234602499422</v>
       </c>
       <c r="H15" t="n">
-        <v>11.10884471361283</v>
+        <v>11.10884471361284</v>
       </c>
       <c r="I15" t="n">
-        <v>39.60237556851077</v>
+        <v>39.60237556851079</v>
       </c>
       <c r="J15" t="n">
-        <v>108.671945493158</v>
+        <v>108.6719454931581</v>
       </c>
       <c r="K15" t="n">
         <v>185.7376638606193</v>
       </c>
       <c r="L15" t="n">
-        <v>249.7472105119905</v>
+        <v>249.7472105119907</v>
       </c>
       <c r="M15" t="n">
-        <v>291.4432148525945</v>
+        <v>291.4432148525946</v>
       </c>
       <c r="N15" t="n">
-        <v>299.1568495333911</v>
+        <v>299.1568495333912</v>
       </c>
       <c r="O15" t="n">
-        <v>273.6700722885355</v>
+        <v>273.6700722885356</v>
       </c>
       <c r="P15" t="n">
-        <v>219.6443601913149</v>
+        <v>219.644360191315</v>
       </c>
       <c r="Q15" t="n">
-        <v>146.8264380313296</v>
+        <v>146.8264380313297</v>
       </c>
       <c r="R15" t="n">
-        <v>71.41544312711321</v>
+        <v>71.41544312711324</v>
       </c>
       <c r="S15" t="n">
-        <v>21.36510325256599</v>
+        <v>21.365103252566</v>
       </c>
       <c r="T15" t="n">
-        <v>4.636252630249857</v>
+        <v>4.63625263024986</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07567332911180405</v>
+        <v>0.07567332911180408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9643180518509669</v>
+        <v>0.9643180518509673</v>
       </c>
       <c r="H16" t="n">
-        <v>8.573664133729512</v>
+        <v>8.573664133729515</v>
       </c>
       <c r="I16" t="n">
-        <v>28.99967377748181</v>
+        <v>28.99967377748183</v>
       </c>
       <c r="J16" t="n">
-        <v>68.17728626586336</v>
+        <v>68.17728626586339</v>
       </c>
       <c r="K16" t="n">
-        <v>112.0362245695941</v>
+        <v>112.0362245695942</v>
       </c>
       <c r="L16" t="n">
-        <v>143.3677947270065</v>
+        <v>143.3677947270066</v>
       </c>
       <c r="M16" t="n">
         <v>151.1612378915111</v>
@@ -32174,22 +32174,22 @@
         <v>136.3019733652622</v>
       </c>
       <c r="P16" t="n">
-        <v>116.6298851075023</v>
+        <v>116.6298851075024</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.74848705090234</v>
+        <v>80.74848705090237</v>
       </c>
       <c r="R16" t="n">
-        <v>43.3592462223171</v>
+        <v>43.35924622231712</v>
       </c>
       <c r="S16" t="n">
-        <v>16.80543368543912</v>
+        <v>16.80543368543913</v>
       </c>
       <c r="T16" t="n">
-        <v>4.120268039726858</v>
+        <v>4.120268039726859</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05259916646459826</v>
+        <v>0.05259916646459828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>2.149781677950076</v>
       </c>
       <c r="H17" t="n">
-        <v>22.01645160930622</v>
+        <v>22.01645160930623</v>
       </c>
       <c r="I17" t="n">
-        <v>82.87945813917038</v>
+        <v>82.87945813917041</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4600326889154</v>
+        <v>182.4600326889155</v>
       </c>
       <c r="K17" t="n">
-        <v>273.4602911165422</v>
+        <v>273.4602911165423</v>
       </c>
       <c r="L17" t="n">
-        <v>339.2516721431069</v>
+        <v>339.251672143107</v>
       </c>
       <c r="M17" t="n">
         <v>377.4828520583516</v>
       </c>
       <c r="N17" t="n">
-        <v>383.5909192508273</v>
+        <v>383.5909192508274</v>
       </c>
       <c r="O17" t="n">
         <v>362.2140276907112</v>
       </c>
       <c r="P17" t="n">
-        <v>309.1412925163186</v>
+        <v>309.1412925163187</v>
       </c>
       <c r="Q17" t="n">
-        <v>232.1522361747314</v>
+        <v>232.1522361747315</v>
       </c>
       <c r="R17" t="n">
         <v>135.0412233275316</v>
       </c>
       <c r="S17" t="n">
-        <v>48.98814998628741</v>
+        <v>48.98814998628742</v>
       </c>
       <c r="T17" t="n">
-        <v>9.410669295226462</v>
+        <v>9.410669295226464</v>
       </c>
       <c r="U17" t="n">
-        <v>0.171982534236006</v>
+        <v>0.1719825342360061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.150234602499421</v>
+        <v>1.150234602499422</v>
       </c>
       <c r="H18" t="n">
-        <v>11.10884471361283</v>
+        <v>11.10884471361284</v>
       </c>
       <c r="I18" t="n">
-        <v>39.60237556851078</v>
+        <v>39.60237556851079</v>
       </c>
       <c r="J18" t="n">
         <v>108.6719454931581</v>
@@ -32320,34 +32320,34 @@
         <v>185.7376638606193</v>
       </c>
       <c r="L18" t="n">
-        <v>249.7472105119906</v>
+        <v>249.7472105119907</v>
       </c>
       <c r="M18" t="n">
         <v>291.4432148525946</v>
       </c>
       <c r="N18" t="n">
-        <v>299.1568495333904</v>
+        <v>299.1568495333912</v>
       </c>
       <c r="O18" t="n">
         <v>273.6700722885356</v>
       </c>
       <c r="P18" t="n">
-        <v>219.6443601913149</v>
+        <v>219.644360191315</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.8264380313296</v>
+        <v>146.8264380313297</v>
       </c>
       <c r="R18" t="n">
-        <v>71.41544312711322</v>
+        <v>71.41544312711324</v>
       </c>
       <c r="S18" t="n">
-        <v>21.36510325256599</v>
+        <v>21.365103252566</v>
       </c>
       <c r="T18" t="n">
-        <v>4.636252630249858</v>
+        <v>4.63625263024986</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07567332911180406</v>
+        <v>0.07567332911180408</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9643180518509671</v>
+        <v>0.9643180518509673</v>
       </c>
       <c r="H19" t="n">
-        <v>8.573664133729514</v>
+        <v>8.573664133729515</v>
       </c>
       <c r="I19" t="n">
-        <v>28.99967377748182</v>
+        <v>28.99967377748183</v>
       </c>
       <c r="J19" t="n">
-        <v>68.17728626586337</v>
+        <v>68.17728626586339</v>
       </c>
       <c r="K19" t="n">
         <v>112.0362245695942</v>
       </c>
       <c r="L19" t="n">
-        <v>143.3677947270065</v>
+        <v>143.3677947270066</v>
       </c>
       <c r="M19" t="n">
         <v>151.1612378915111</v>
@@ -32414,19 +32414,19 @@
         <v>116.6298851075024</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.74848705090236</v>
+        <v>80.74848705090237</v>
       </c>
       <c r="R19" t="n">
-        <v>43.35924622231711</v>
+        <v>43.35924622231712</v>
       </c>
       <c r="S19" t="n">
-        <v>16.80543368543912</v>
+        <v>16.80543368543913</v>
       </c>
       <c r="T19" t="n">
         <v>4.120268039726859</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05259916646459827</v>
+        <v>0.05259916646459828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>2.149781677950076</v>
       </c>
       <c r="H20" t="n">
-        <v>22.01645160930622</v>
+        <v>22.01645160930623</v>
       </c>
       <c r="I20" t="n">
-        <v>82.87945813917038</v>
+        <v>82.87945813917041</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4600326889154</v>
+        <v>182.4600326889155</v>
       </c>
       <c r="K20" t="n">
-        <v>273.4602911165422</v>
+        <v>273.4602911165423</v>
       </c>
       <c r="L20" t="n">
-        <v>339.2516721431069</v>
+        <v>339.251672143107</v>
       </c>
       <c r="M20" t="n">
         <v>377.4828520583516</v>
       </c>
       <c r="N20" t="n">
-        <v>383.5909192508273</v>
+        <v>383.5909192508274</v>
       </c>
       <c r="O20" t="n">
         <v>362.2140276907112</v>
       </c>
       <c r="P20" t="n">
-        <v>309.1412925163186</v>
+        <v>309.1412925163187</v>
       </c>
       <c r="Q20" t="n">
-        <v>232.1522361747314</v>
+        <v>232.1522361747315</v>
       </c>
       <c r="R20" t="n">
         <v>135.0412233275316</v>
       </c>
       <c r="S20" t="n">
-        <v>48.98814998628741</v>
+        <v>48.98814998628742</v>
       </c>
       <c r="T20" t="n">
-        <v>9.410669295226462</v>
+        <v>9.410669295226464</v>
       </c>
       <c r="U20" t="n">
-        <v>0.171982534236006</v>
+        <v>0.1719825342360061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.150234602499421</v>
+        <v>1.150234602499422</v>
       </c>
       <c r="H21" t="n">
-        <v>11.10884471361283</v>
+        <v>11.10884471361284</v>
       </c>
       <c r="I21" t="n">
-        <v>39.60237556851078</v>
+        <v>39.60237556851079</v>
       </c>
       <c r="J21" t="n">
         <v>108.6719454931581</v>
       </c>
       <c r="K21" t="n">
-        <v>185.7376638606189</v>
+        <v>185.7376638606193</v>
       </c>
       <c r="L21" t="n">
-        <v>249.7472105119906</v>
+        <v>249.7472105119907</v>
       </c>
       <c r="M21" t="n">
         <v>291.4432148525946</v>
@@ -32569,22 +32569,22 @@
         <v>273.6700722885356</v>
       </c>
       <c r="P21" t="n">
-        <v>219.6443601913149</v>
+        <v>219.644360191315</v>
       </c>
       <c r="Q21" t="n">
-        <v>146.8264380313296</v>
+        <v>146.8264380313297</v>
       </c>
       <c r="R21" t="n">
-        <v>71.41544312711322</v>
+        <v>71.41544312711324</v>
       </c>
       <c r="S21" t="n">
-        <v>21.36510325256599</v>
+        <v>21.365103252566</v>
       </c>
       <c r="T21" t="n">
-        <v>4.636252630249858</v>
+        <v>4.63625263024986</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07567332911180406</v>
+        <v>0.07567332911180408</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9643180518509671</v>
+        <v>0.9643180518509673</v>
       </c>
       <c r="H22" t="n">
-        <v>8.573664133729514</v>
+        <v>8.573664133729515</v>
       </c>
       <c r="I22" t="n">
-        <v>28.99967377748182</v>
+        <v>28.99967377748183</v>
       </c>
       <c r="J22" t="n">
-        <v>68.17728626586337</v>
+        <v>68.17728626586339</v>
       </c>
       <c r="K22" t="n">
         <v>112.0362245695942</v>
       </c>
       <c r="L22" t="n">
-        <v>143.3677947270065</v>
+        <v>143.3677947270066</v>
       </c>
       <c r="M22" t="n">
         <v>151.1612378915111</v>
@@ -32651,19 +32651,19 @@
         <v>116.6298851075024</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.74848705090236</v>
+        <v>80.74848705090237</v>
       </c>
       <c r="R22" t="n">
-        <v>43.35924622231711</v>
+        <v>43.35924622231712</v>
       </c>
       <c r="S22" t="n">
-        <v>16.80543368543912</v>
+        <v>16.80543368543913</v>
       </c>
       <c r="T22" t="n">
         <v>4.120268039726859</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05259916646459827</v>
+        <v>0.05259916646459828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>299.1568495333912</v>
       </c>
       <c r="O24" t="n">
-        <v>273.6700722885352</v>
+        <v>273.6700722885356</v>
       </c>
       <c r="P24" t="n">
         <v>219.6443601913149</v>
@@ -34137,7 +34137,7 @@
         <v>273.4602911165422</v>
       </c>
       <c r="L41" t="n">
-        <v>339.2516721431069</v>
+        <v>339.2516721431073</v>
       </c>
       <c r="M41" t="n">
         <v>377.4828520583516</v>
@@ -34225,7 +34225,7 @@
         <v>299.1568495333912</v>
       </c>
       <c r="O42" t="n">
-        <v>273.6700722885351</v>
+        <v>273.6700722885356</v>
       </c>
       <c r="P42" t="n">
         <v>219.6443601913149</v>
@@ -34386,7 +34386,7 @@
         <v>362.2140276907112</v>
       </c>
       <c r="P44" t="n">
-        <v>309.1412925163183</v>
+        <v>309.1412925163186</v>
       </c>
       <c r="Q44" t="n">
         <v>232.1522361747314</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.940275775396259</v>
+        <v>5.940275775396316</v>
       </c>
       <c r="K11" t="n">
-        <v>58.87268634768608</v>
+        <v>58.8726863476862</v>
       </c>
       <c r="L11" t="n">
-        <v>109.3794175473693</v>
+        <v>109.3794175473694</v>
       </c>
       <c r="M11" t="n">
-        <v>152.8952746617606</v>
+        <v>152.8952746617607</v>
       </c>
       <c r="N11" t="n">
-        <v>159.913182244151</v>
+        <v>159.9131822441511</v>
       </c>
       <c r="O11" t="n">
-        <v>137.8682715545665</v>
+        <v>137.8682715545666</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68912165493077</v>
+        <v>83.68912165493083</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.40418854714315</v>
+        <v>15.40418854714318</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>51.34226086061923</v>
+        <v>51.34226086061926</v>
       </c>
       <c r="L12" t="n">
-        <v>114.6566902266132</v>
+        <v>114.6566902266133</v>
       </c>
       <c r="M12" t="n">
-        <v>152.8625317786266</v>
+        <v>152.8625317786267</v>
       </c>
       <c r="N12" t="n">
-        <v>171.0986802521411</v>
+        <v>171.0986802521412</v>
       </c>
       <c r="O12" t="n">
         <v>134.6387339552022</v>
       </c>
       <c r="P12" t="n">
-        <v>89.01931296234292</v>
+        <v>89.01931296234295</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.34420829745864</v>
+        <v>10.34420829745866</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.39984302176302</v>
+        <v>97.2618148517608</v>
       </c>
       <c r="L13" t="n">
-        <v>180.8289249560158</v>
+        <v>133.5446818750121</v>
       </c>
       <c r="M13" t="n">
-        <v>182.8374474871617</v>
+        <v>15.70859854259621</v>
       </c>
       <c r="N13" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O13" t="n">
-        <v>1.306848374715457</v>
+        <v>170.8701813952333</v>
       </c>
       <c r="P13" t="n">
         <v>122.7519070061862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.98778717505418</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.940275775396259</v>
+        <v>5.940275775396344</v>
       </c>
       <c r="K14" t="n">
-        <v>58.87268634768608</v>
+        <v>58.87268634768625</v>
       </c>
       <c r="L14" t="n">
-        <v>109.3794175473693</v>
+        <v>109.3794175473694</v>
       </c>
       <c r="M14" t="n">
-        <v>152.8952746617606</v>
+        <v>152.8952746617607</v>
       </c>
       <c r="N14" t="n">
-        <v>159.913182244151</v>
+        <v>159.9131822441512</v>
       </c>
       <c r="O14" t="n">
-        <v>137.8682715545665</v>
+        <v>137.8682715545667</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68912165493077</v>
+        <v>83.68912165493089</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.40418854714315</v>
+        <v>15.40418854714324</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>51.34226086061923</v>
+        <v>51.34226086061932</v>
       </c>
       <c r="L15" t="n">
-        <v>114.6566902266132</v>
+        <v>114.6566902266133</v>
       </c>
       <c r="M15" t="n">
-        <v>152.8625317786262</v>
+        <v>152.8625317786268</v>
       </c>
       <c r="N15" t="n">
-        <v>171.0986802521411</v>
+        <v>171.0986802521412</v>
       </c>
       <c r="O15" t="n">
-        <v>134.6387339552022</v>
+        <v>134.6387339552023</v>
       </c>
       <c r="P15" t="n">
-        <v>89.01931296234292</v>
+        <v>89.01931296234301</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.34420829745864</v>
+        <v>10.34420829745869</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>97.26181485176079</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>11.85523535279918</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M16" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N16" t="n">
-        <v>182.8374474871616</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O16" t="n">
-        <v>125.4307789728801</v>
+        <v>170.8701813952333</v>
       </c>
       <c r="P16" t="n">
-        <v>122.7519070061862</v>
+        <v>6.588417007431605</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9877871750541658</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.940275775396316</v>
+        <v>5.940275775396344</v>
       </c>
       <c r="K17" t="n">
-        <v>58.8726863476862</v>
+        <v>58.87268634768625</v>
       </c>
       <c r="L17" t="n">
         <v>109.3794175473694</v>
@@ -35895,16 +35895,16 @@
         <v>152.8952746617607</v>
       </c>
       <c r="N17" t="n">
-        <v>159.9131822441511</v>
+        <v>159.9131822441512</v>
       </c>
       <c r="O17" t="n">
-        <v>137.868271554566</v>
+        <v>137.8682715545667</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68912165493083</v>
+        <v>83.68912165493089</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.40418854714318</v>
+        <v>15.40418854714324</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>51.34226086061926</v>
+        <v>51.34226086061927</v>
       </c>
       <c r="L18" t="n">
         <v>114.6566902266133</v>
       </c>
       <c r="M18" t="n">
-        <v>152.8625317786267</v>
+        <v>152.8625317786268</v>
       </c>
       <c r="N18" t="n">
-        <v>171.0986802521405</v>
+        <v>171.0986802521412</v>
       </c>
       <c r="O18" t="n">
-        <v>134.6387339552022</v>
+        <v>134.6387339552023</v>
       </c>
       <c r="P18" t="n">
-        <v>89.01931296234295</v>
+        <v>89.01931296234301</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.34420829745866</v>
+        <v>10.34420829745869</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.2618148517608</v>
+        <v>97.26181485176083</v>
       </c>
       <c r="L19" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M19" t="n">
-        <v>15.70859854259621</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N19" t="n">
-        <v>182.8374474871616</v>
+        <v>23.07355566282804</v>
       </c>
       <c r="O19" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P19" t="n">
-        <v>75.46766392518171</v>
+        <v>69.0904939800046</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.98778717505418</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.940275775396316</v>
+        <v>5.940275775396344</v>
       </c>
       <c r="K20" t="n">
-        <v>58.8726863476862</v>
+        <v>58.87268634768625</v>
       </c>
       <c r="L20" t="n">
         <v>109.3794175473694</v>
@@ -36132,16 +36132,16 @@
         <v>152.8952746617607</v>
       </c>
       <c r="N20" t="n">
-        <v>159.9131822441511</v>
+        <v>159.9131822441512</v>
       </c>
       <c r="O20" t="n">
-        <v>137.8682715545666</v>
+        <v>137.8682715545667</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68912165493083</v>
+        <v>83.68912165493089</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.40418854714318</v>
+        <v>15.40418854714324</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>51.34226086061883</v>
+        <v>51.34226086061932</v>
       </c>
       <c r="L21" t="n">
-        <v>114.6566902266133</v>
+        <v>114.6566902266129</v>
       </c>
       <c r="M21" t="n">
-        <v>152.8625317786267</v>
+        <v>152.8625317786268</v>
       </c>
       <c r="N21" t="n">
         <v>171.0986802521412</v>
       </c>
       <c r="O21" t="n">
-        <v>134.6387339552022</v>
+        <v>134.6387339552023</v>
       </c>
       <c r="P21" t="n">
-        <v>89.01931296234295</v>
+        <v>89.01931296234301</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.34420829745866</v>
+        <v>10.34420829745869</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.2618148517608</v>
+        <v>97.26181485176083</v>
       </c>
       <c r="L22" t="n">
-        <v>180.8289249560158</v>
+        <v>89.1677399366322</v>
       </c>
       <c r="M22" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="N22" t="n">
-        <v>137.9876884821097</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="O22" t="n">
-        <v>1.306848374715486</v>
+        <v>170.8701813952333</v>
       </c>
       <c r="P22" t="n">
-        <v>122.7519070061862</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.98778717505418</v>
+        <v>0.9877871750541942</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>5.940275775396316</v>
       </c>
       <c r="K23" t="n">
-        <v>58.87268634768598</v>
+        <v>58.8726863476862</v>
       </c>
       <c r="L23" t="n">
         <v>109.3794175473694</v>
@@ -36375,7 +36375,7 @@
         <v>137.8682715545666</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68912165493083</v>
+        <v>83.68912165493089</v>
       </c>
       <c r="Q23" t="n">
         <v>15.40418854714318</v>
@@ -36451,10 +36451,10 @@
         <v>171.0986802521412</v>
       </c>
       <c r="O24" t="n">
-        <v>134.6387339552019</v>
+        <v>134.6387339552022</v>
       </c>
       <c r="P24" t="n">
-        <v>89.01931296234295</v>
+        <v>89.01931296234274</v>
       </c>
       <c r="Q24" t="n">
         <v>10.34420829745866</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.2618148517608</v>
       </c>
       <c r="L25" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M25" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="N25" t="n">
-        <v>182.8374474871617</v>
+        <v>137.9876884821101</v>
       </c>
       <c r="O25" t="n">
-        <v>53.71890422142432</v>
+        <v>1.306848374715486</v>
       </c>
       <c r="P25" t="n">
         <v>122.7519070061862</v>
@@ -36691,7 +36691,7 @@
         <v>134.6387339552022</v>
       </c>
       <c r="P27" t="n">
-        <v>89.01931296234262</v>
+        <v>89.01931296234295</v>
       </c>
       <c r="Q27" t="n">
         <v>10.34420829745866</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>51.82241242940771</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>11.85523535279921</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M28" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="N28" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="O28" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P28" t="n">
-        <v>122.7519070061862</v>
+        <v>5.600629832377473</v>
       </c>
       <c r="Q28" t="n">
         <v>0.98778717505418</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.940275775396316</v>
+        <v>5.940275775396434</v>
       </c>
       <c r="K29" t="n">
         <v>58.8726863476862</v>
@@ -36852,7 +36852,7 @@
         <v>83.68912165493083</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.40418854714289</v>
+        <v>15.40418854714318</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>134.6387339552022</v>
       </c>
       <c r="P30" t="n">
-        <v>89.01931296234262</v>
+        <v>89.01931296234295</v>
       </c>
       <c r="Q30" t="n">
         <v>10.34420829745866</v>
@@ -36995,19 +36995,19 @@
         <v>97.2618148517608</v>
       </c>
       <c r="L31" t="n">
-        <v>180.8289249560158</v>
+        <v>89.16773993663254</v>
       </c>
       <c r="M31" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="N31" t="n">
-        <v>23.07355566282801</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="O31" t="n">
-        <v>116.2209811939972</v>
+        <v>170.8701813952333</v>
       </c>
       <c r="P31" t="n">
-        <v>122.7519070061862</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0.98778717505418</v>
@@ -37156,7 +37156,7 @@
         <v>114.6566902266133</v>
       </c>
       <c r="M33" t="n">
-        <v>152.8625317786265</v>
+        <v>152.8625317786266</v>
       </c>
       <c r="N33" t="n">
         <v>171.0986802521412</v>
@@ -37232,19 +37232,19 @@
         <v>97.2618148517608</v>
       </c>
       <c r="L34" t="n">
-        <v>127.167511929834</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M34" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="N34" t="n">
-        <v>23.07355566282801</v>
+        <v>92.16404964283259</v>
       </c>
       <c r="O34" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P34" t="n">
-        <v>122.7519070061862</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37475,16 +37475,16 @@
         <v>182.8374474871618</v>
       </c>
       <c r="N37" t="n">
-        <v>65.6861703133531</v>
+        <v>182.8374474871618</v>
       </c>
       <c r="O37" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P37" t="n">
-        <v>122.7519070061862</v>
+        <v>6.588417007431605</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.98778717505418</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>137.8682715545666</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68912165493094</v>
+        <v>83.68912165493083</v>
       </c>
       <c r="Q38" t="n">
         <v>15.40418854714318</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>97.2618148517608</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>11.85523535279921</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M40" t="n">
+        <v>66.67395748840718</v>
+      </c>
+      <c r="N40" t="n">
         <v>182.8374474871618</v>
-      </c>
-      <c r="N40" t="n">
-        <v>137.3980450648089</v>
       </c>
       <c r="O40" t="n">
         <v>170.8701813952333</v>
@@ -37721,7 +37721,7 @@
         <v>122.7519070061862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.98778717505418</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>58.8726863476862</v>
       </c>
       <c r="L41" t="n">
-        <v>109.3794175473694</v>
+        <v>109.3794175473697</v>
       </c>
       <c r="M41" t="n">
         <v>152.8952746617607</v>
@@ -37873,7 +37873,7 @@
         <v>171.0986802521412</v>
       </c>
       <c r="O42" t="n">
-        <v>134.6387339552018</v>
+        <v>134.6387339552022</v>
       </c>
       <c r="P42" t="n">
         <v>89.01931296234295</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.2618148517608</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>135.9791659509639</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M43" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N43" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O43" t="n">
-        <v>1.306848374715486</v>
+        <v>170.8701813952333</v>
       </c>
       <c r="P43" t="n">
-        <v>122.7519070061862</v>
+        <v>5.600629832377589</v>
       </c>
       <c r="Q43" t="n">
         <v>0.98778717505418</v>
@@ -38034,7 +38034,7 @@
         <v>137.8682715545666</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68912165493049</v>
+        <v>83.68912165493083</v>
       </c>
       <c r="Q44" t="n">
         <v>15.40418854714318</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.34226086061926</v>
+        <v>51.34226086061962</v>
       </c>
       <c r="L45" t="n">
         <v>114.6566902266133</v>
       </c>
       <c r="M45" t="n">
-        <v>152.8625317786263</v>
+        <v>152.8625317786267</v>
       </c>
       <c r="N45" t="n">
         <v>171.0986802521412</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>6.588417007431783</v>
       </c>
       <c r="L46" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M46" t="n">
-        <v>182.8374474871617</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N46" t="n">
-        <v>65.68617031335282</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O46" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P46" t="n">
-        <v>122.7519070061862</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.98778717505418</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
